--- a/Kode/Server2/Logs/lora_node1/2020-05-23.xlsx
+++ b/Kode/Server2/Logs/lora_node1/2020-05-23.xlsx
@@ -403,7 +403,7 @@
         <v>38.52</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08458992</v>
+        <v>84.58991999999999</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>37.695</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08247666000000001</v>
+        <v>82.47666000000001</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>36.87</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08067156</v>
+        <v>80.67156</v>
       </c>
     </row>
     <row r="5">
@@ -463,7 +463,7 @@
         <v>37.155</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08144376000000002</v>
+        <v>81.44376000000001</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>36.57</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0797226</v>
+        <v>79.7226</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         <v>36.63</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07985339999999999</v>
+        <v>79.85339999999999</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>36.825</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0799839</v>
+        <v>79.98389999999999</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         <v>37.11</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08164200000000001</v>
+        <v>81.64200000000001</v>
       </c>
     </row>
     <row r="10">
@@ -563,7 +563,7 @@
         <v>36.33</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07949004000000001</v>
+        <v>79.49004000000001</v>
       </c>
     </row>
     <row r="11">
@@ -583,7 +583,7 @@
         <v>34.5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.075348</v>
+        <v>75.348</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>32.115</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07039608000000001</v>
+        <v>70.39608000000001</v>
       </c>
     </row>
     <row r="13">
@@ -623,7 +623,7 @@
         <v>30.735</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0670023</v>
+        <v>67.00230000000001</v>
       </c>
     </row>
     <row r="14">
@@ -643,7 +643,7 @@
         <v>28.185</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06166878000000001</v>
+        <v>61.66878000000001</v>
       </c>
     </row>
     <row r="15">
@@ -663,7 +663,7 @@
         <v>27.33</v>
       </c>
       <c r="F15" t="n">
-        <v>0.060126</v>
+        <v>60.126</v>
       </c>
     </row>
     <row r="16">
@@ -683,7 +683,7 @@
         <v>27.75</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06038400000000001</v>
+        <v>60.38400000000001</v>
       </c>
     </row>
     <row r="17">
@@ -703,7 +703,7 @@
         <v>28.02</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06153192</v>
+        <v>61.53192</v>
       </c>
     </row>
     <row r="18">
@@ -723,7 +723,7 @@
         <v>29.745</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06424920000000001</v>
+        <v>64.2492</v>
       </c>
     </row>
     <row r="19">
@@ -743,7 +743,7 @@
         <v>30.435</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06659178</v>
+        <v>66.59178</v>
       </c>
     </row>
     <row r="20">
@@ -763,7 +763,7 @@
         <v>29.91</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06532344000000001</v>
+        <v>65.32344000000001</v>
       </c>
     </row>
     <row r="21">
@@ -783,7 +783,7 @@
         <v>29.67</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06479928</v>
+        <v>64.79928</v>
       </c>
     </row>
     <row r="22">
@@ -803,7 +803,7 @@
         <v>29.925</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0653562</v>
+        <v>65.3562</v>
       </c>
     </row>
     <row r="23">
@@ -823,7 +823,7 @@
         <v>28.815</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06235566</v>
+        <v>62.35566</v>
       </c>
     </row>
     <row r="24">
@@ -843,7 +843,7 @@
         <v>27.66</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06029880000000001</v>
+        <v>60.29880000000001</v>
       </c>
     </row>
     <row r="25">
@@ -863,7 +863,7 @@
         <v>26.19</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05646564</v>
+        <v>56.46564</v>
       </c>
     </row>
     <row r="26">
@@ -883,7 +883,7 @@
         <v>25.56</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0552096</v>
+        <v>55.20959999999999</v>
       </c>
     </row>
     <row r="27">
@@ -903,7 +903,7 @@
         <v>25.335</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05533164</v>
+        <v>55.33164</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>25.455</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05559372</v>
+        <v>55.59372</v>
       </c>
     </row>
     <row r="29">
@@ -943,7 +943,7 @@
         <v>25.155</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05493852</v>
+        <v>54.93852</v>
       </c>
     </row>
     <row r="30">
@@ -963,7 +963,7 @@
         <v>25.065</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0541404</v>
+        <v>54.1404</v>
       </c>
     </row>
     <row r="31">
@@ -983,7 +983,7 @@
         <v>24.495</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05388899999999999</v>
+        <v>53.889</v>
       </c>
     </row>
     <row r="32">
@@ -1003,7 +1003,7 @@
         <v>23.325</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0509418</v>
+        <v>50.9418</v>
       </c>
     </row>
     <row r="33">
@@ -1023,7 +1023,7 @@
         <v>21.93</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04763196</v>
+        <v>47.63196</v>
       </c>
     </row>
     <row r="34">
@@ -1043,7 +1043,7 @@
         <v>20.715</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04466154</v>
+        <v>44.66154</v>
       </c>
     </row>
     <row r="35">
@@ -1063,7 +1063,7 @@
         <v>19.965</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04440216</v>
+        <v>44.40216</v>
       </c>
     </row>
     <row r="36">
@@ -1083,7 +1083,7 @@
         <v>19.575</v>
       </c>
       <c r="F36" t="n">
-        <v>0.042282</v>
+        <v>42.282</v>
       </c>
     </row>
     <row r="37">
@@ -1103,7 +1103,7 @@
         <v>19.59</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04278456000000001</v>
+        <v>42.78456000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1123,7 +1123,7 @@
         <v>19.5</v>
       </c>
       <c r="F38" t="n">
-        <v>0.042276</v>
+        <v>42.276</v>
       </c>
     </row>
     <row r="39">
@@ -1143,7 +1143,7 @@
         <v>19.095</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04132158</v>
+        <v>41.32158</v>
       </c>
     </row>
     <row r="40">
@@ -1163,7 +1163,7 @@
         <v>18.435</v>
       </c>
       <c r="F40" t="n">
-        <v>0.04077822</v>
+        <v>40.77822</v>
       </c>
     </row>
     <row r="41">
@@ -1183,7 +1183,7 @@
         <v>17.775</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0385362</v>
+        <v>38.5362</v>
       </c>
     </row>
     <row r="42">
@@ -1203,7 +1203,7 @@
         <v>17.25</v>
       </c>
       <c r="F42" t="n">
-        <v>0.037398</v>
+        <v>37.398</v>
       </c>
     </row>
     <row r="43">
@@ -1223,7 +1223,7 @@
         <v>16.845</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03685686</v>
+        <v>36.85686</v>
       </c>
     </row>
     <row r="44">
@@ -1243,7 +1243,7 @@
         <v>16.53</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03550644000000001</v>
+        <v>35.50644</v>
       </c>
     </row>
     <row r="45">
@@ -1263,7 +1263,7 @@
         <v>16.17</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03609144</v>
+        <v>36.09144000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1283,7 +1283,7 @@
         <v>16.005</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03463482</v>
+        <v>34.63482</v>
       </c>
     </row>
     <row r="47">
@@ -1303,7 +1303,7 @@
         <v>16.185</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03547752</v>
+        <v>35.47752</v>
       </c>
     </row>
     <row r="48">
@@ -1323,7 +1323,7 @@
         <v>16.695</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03632832</v>
+        <v>36.32832</v>
       </c>
     </row>
     <row r="49">
@@ -1343,7 +1343,7 @@
         <v>17.46</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03792312</v>
+        <v>37.92312</v>
       </c>
     </row>
     <row r="50">
@@ -1363,7 +1363,7 @@
         <v>18.405</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03953394</v>
+        <v>39.53393999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1383,7 +1383,7 @@
         <v>19.38</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04155072</v>
+        <v>41.55072</v>
       </c>
     </row>
     <row r="52">
@@ -1403,7 +1403,7 @@
         <v>20.205</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0440469</v>
+        <v>44.0469</v>
       </c>
     </row>
     <row r="53">
@@ -1423,7 +1423,7 @@
         <v>20.625</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0444675</v>
+        <v>44.4675</v>
       </c>
     </row>
     <row r="54">
@@ -1443,7 +1443,7 @@
         <v>20.67</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0446472</v>
+        <v>44.6472</v>
       </c>
     </row>
     <row r="55">
@@ -1463,7 +1463,7 @@
         <v>20.775</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0452064</v>
+        <v>45.2064</v>
       </c>
     </row>
     <row r="56">
@@ -1483,7 +1483,7 @@
         <v>21</v>
       </c>
       <c r="F56" t="n">
-        <v>0.046032</v>
+        <v>46.032</v>
       </c>
     </row>
     <row r="57">
@@ -1503,7 +1503,7 @@
         <v>21.66</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04713216000000001</v>
+        <v>47.13216000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1523,7 +1523,7 @@
         <v>22.635</v>
       </c>
       <c r="F58" t="n">
-        <v>0.04970646</v>
+        <v>49.70646</v>
       </c>
     </row>
     <row r="59">
@@ -1543,7 +1543,7 @@
         <v>23.325</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0509418</v>
+        <v>50.9418</v>
       </c>
     </row>
     <row r="60">
@@ -1563,7 +1563,7 @@
         <v>23.19</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0505542</v>
+        <v>50.5542</v>
       </c>
     </row>
     <row r="61">
@@ -1583,7 +1583,7 @@
         <v>22.785</v>
       </c>
       <c r="F61" t="n">
-        <v>0.04976244000000001</v>
+        <v>49.76244000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1603,7 +1603,7 @@
         <v>22.98</v>
       </c>
       <c r="F62" t="n">
-        <v>0.05018832</v>
+        <v>50.18832</v>
       </c>
     </row>
     <row r="63">
@@ -1623,7 +1623,7 @@
         <v>24.18</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0527124</v>
+        <v>52.7124</v>
       </c>
     </row>
     <row r="64">
@@ -1643,7 +1643,7 @@
         <v>26.805</v>
       </c>
       <c r="F64" t="n">
-        <v>0.058971</v>
+        <v>58.971</v>
       </c>
     </row>
     <row r="65">
@@ -1663,7 +1663,7 @@
         <v>31.335</v>
       </c>
       <c r="F65" t="n">
-        <v>0.06906234</v>
+        <v>69.06234000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1683,7 +1683,7 @@
         <v>38.25</v>
       </c>
       <c r="F66" t="n">
-        <v>0.083997</v>
+        <v>83.997</v>
       </c>
     </row>
     <row r="67">
@@ -1703,7 +1703,7 @@
         <v>53.07</v>
       </c>
       <c r="F67" t="n">
-        <v>0.11632944</v>
+        <v>116.32944</v>
       </c>
     </row>
     <row r="68">
@@ -1723,7 +1723,7 @@
         <v>55.5</v>
       </c>
       <c r="F68" t="n">
-        <v>0.121656</v>
+        <v>121.656</v>
       </c>
     </row>
     <row r="69">
@@ -1743,7 +1743,7 @@
         <v>42.45</v>
       </c>
       <c r="F69" t="n">
-        <v>0.09305039999999999</v>
+        <v>93.0504</v>
       </c>
     </row>
     <row r="70">
@@ -1763,7 +1763,7 @@
         <v>35.49</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07722624</v>
+        <v>77.22624</v>
       </c>
     </row>
     <row r="71">
@@ -1783,7 +1783,7 @@
         <v>37.695</v>
       </c>
       <c r="F71" t="n">
-        <v>0.08232588000000002</v>
+        <v>82.32588000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1803,7 +1803,7 @@
         <v>40.575</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0889404</v>
+        <v>88.9404</v>
       </c>
     </row>
     <row r="73">
@@ -1823,7 +1823,7 @@
         <v>45.42</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09956064000000001</v>
+        <v>99.56064000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1843,7 +1843,7 @@
         <v>44.85</v>
       </c>
       <c r="F74" t="n">
-        <v>0.09831120000000002</v>
+        <v>98.31120000000001</v>
       </c>
     </row>
     <row r="75">
@@ -1863,7 +1863,7 @@
         <v>43.38</v>
       </c>
       <c r="F75" t="n">
-        <v>0.09508896</v>
+        <v>95.08896</v>
       </c>
     </row>
     <row r="76">
@@ -1883,7 +1883,7 @@
         <v>41.535</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09087858</v>
+        <v>90.87858</v>
       </c>
     </row>
     <row r="77">
@@ -1903,7 +1903,7 @@
         <v>41.385</v>
       </c>
       <c r="F77" t="n">
-        <v>0.09055038</v>
+        <v>90.55038</v>
       </c>
     </row>
     <row r="78">
@@ -1923,7 +1923,7 @@
         <v>40.53</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08900388000000001</v>
+        <v>89.00388000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1943,7 +1943,7 @@
         <v>42.39</v>
       </c>
       <c r="F79" t="n">
-        <v>0.09291888</v>
+        <v>92.91888</v>
       </c>
     </row>
     <row r="80">
@@ -1963,7 +1963,7 @@
         <v>43.425</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0951876</v>
+        <v>95.1876</v>
       </c>
     </row>
     <row r="81">
@@ -1983,7 +1983,7 @@
         <v>47.46</v>
       </c>
       <c r="F81" t="n">
-        <v>0.10403232</v>
+        <v>104.03232</v>
       </c>
     </row>
     <row r="82">
@@ -2003,7 +2003,7 @@
         <v>53.82</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1173276</v>
+        <v>117.3276</v>
       </c>
     </row>
     <row r="83">
@@ -2023,7 +2023,7 @@
         <v>52.29</v>
       </c>
       <c r="F83" t="n">
-        <v>0.115038</v>
+        <v>115.038</v>
       </c>
     </row>
     <row r="84">
@@ -2043,7 +2043,7 @@
         <v>52.26</v>
       </c>
       <c r="F84" t="n">
-        <v>0.114972</v>
+        <v>114.972</v>
       </c>
     </row>
     <row r="85">
@@ -2063,7 +2063,7 @@
         <v>53.775</v>
       </c>
       <c r="F85" t="n">
-        <v>0.118305</v>
+        <v>118.305</v>
       </c>
     </row>
     <row r="86">
@@ -2083,7 +2083,7 @@
         <v>61.695</v>
       </c>
       <c r="F86" t="n">
-        <v>0.135729</v>
+        <v>135.729</v>
       </c>
     </row>
     <row r="87">
@@ -2103,7 +2103,7 @@
         <v>74.295</v>
       </c>
       <c r="F87" t="n">
-        <v>0.16463772</v>
+        <v>164.63772</v>
       </c>
     </row>
     <row r="88">
@@ -2123,7 +2123,7 @@
         <v>86.72999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>0.19219368</v>
+        <v>192.19368</v>
       </c>
     </row>
     <row r="89">
@@ -2143,7 +2143,7 @@
         <v>91.965</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2041623</v>
+        <v>204.1623</v>
       </c>
     </row>
     <row r="90">
@@ -2163,7 +2163,7 @@
         <v>75.19499999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>0.16663212</v>
+        <v>166.63212</v>
       </c>
     </row>
     <row r="91">
@@ -2183,7 +2183,7 @@
         <v>45.105</v>
       </c>
       <c r="F91" t="n">
-        <v>0.09887016</v>
+        <v>98.87016</v>
       </c>
     </row>
     <row r="92">
@@ -2203,7 +2203,7 @@
         <v>32.925</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07164480000000001</v>
+        <v>71.6448</v>
       </c>
     </row>
     <row r="93">
@@ -2223,7 +2223,7 @@
         <v>28.875</v>
       </c>
       <c r="F93" t="n">
-        <v>0.06375600000000001</v>
+        <v>63.75600000000001</v>
       </c>
     </row>
     <row r="94">
@@ -2243,7 +2243,7 @@
         <v>26.37</v>
       </c>
       <c r="F94" t="n">
-        <v>0.05738111999999999</v>
+        <v>57.38111999999999</v>
       </c>
     </row>
     <row r="95">
@@ -2263,7 +2263,7 @@
         <v>26.655</v>
       </c>
       <c r="F95" t="n">
-        <v>0.05789466</v>
+        <v>57.89466</v>
       </c>
     </row>
     <row r="96">
@@ -2283,7 +2283,7 @@
         <v>29.07</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06348888000000001</v>
+        <v>63.48888000000001</v>
       </c>
     </row>
     <row r="97">
@@ -2303,7 +2303,7 @@
         <v>33.27</v>
       </c>
       <c r="F97" t="n">
-        <v>0.07239551999999999</v>
+        <v>72.39551999999999</v>
       </c>
     </row>
     <row r="98">
@@ -2323,7 +2323,7 @@
         <v>36.195</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07933944000000001</v>
+        <v>79.33944000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2343,7 +2343,7 @@
         <v>50.385</v>
       </c>
       <c r="F99" t="n">
-        <v>0.110847</v>
+        <v>110.847</v>
       </c>
     </row>
     <row r="100">
@@ -2363,7 +2363,7 @@
         <v>48.405</v>
       </c>
       <c r="F100" t="n">
-        <v>0.10629738</v>
+        <v>106.29738</v>
       </c>
     </row>
     <row r="101">
@@ -2383,7 +2383,7 @@
         <v>35.925</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0781728</v>
+        <v>78.1728</v>
       </c>
     </row>
     <row r="102">
@@ -2403,7 +2403,7 @@
         <v>40.215</v>
       </c>
       <c r="F102" t="n">
-        <v>0.08815128</v>
+        <v>88.15128</v>
       </c>
     </row>
     <row r="103">
@@ -2423,7 +2423,7 @@
         <v>35.625</v>
       </c>
       <c r="F103" t="n">
-        <v>0.07780500000000001</v>
+        <v>77.80500000000001</v>
       </c>
     </row>
     <row r="104">
@@ -2443,7 +2443,7 @@
         <v>36.975</v>
       </c>
       <c r="F104" t="n">
-        <v>0.08030970000000001</v>
+        <v>80.30970000000001</v>
       </c>
     </row>
     <row r="105">
@@ -2463,7 +2463,7 @@
         <v>30.225</v>
       </c>
       <c r="F105" t="n">
-        <v>0.066495</v>
+        <v>66.495</v>
       </c>
     </row>
     <row r="106">
@@ -2483,7 +2483,7 @@
         <v>31.44</v>
       </c>
       <c r="F106" t="n">
-        <v>0.06904224</v>
+        <v>69.04224000000001</v>
       </c>
     </row>
     <row r="107">
@@ -2503,7 +2503,7 @@
         <v>31.68</v>
       </c>
       <c r="F107" t="n">
-        <v>0.06944256</v>
+        <v>69.44256</v>
       </c>
     </row>
     <row r="108">
@@ -2523,7 +2523,7 @@
         <v>29.79</v>
       </c>
       <c r="F108" t="n">
-        <v>0.06494220000000001</v>
+        <v>64.9422</v>
       </c>
     </row>
     <row r="109">
@@ -2543,7 +2543,7 @@
         <v>27.81</v>
       </c>
       <c r="F109" t="n">
-        <v>0.06084828</v>
+        <v>60.84828</v>
       </c>
     </row>
     <row r="110">
@@ -2563,7 +2563,7 @@
         <v>26.43</v>
       </c>
       <c r="F110" t="n">
-        <v>0.05782884000000001</v>
+        <v>57.82884000000001</v>
       </c>
     </row>
     <row r="111">
@@ -2583,7 +2583,7 @@
         <v>25.695</v>
       </c>
       <c r="F111" t="n">
-        <v>0.05550120000000001</v>
+        <v>55.5012</v>
       </c>
     </row>
     <row r="112">
@@ -2603,7 +2603,7 @@
         <v>25.785</v>
       </c>
       <c r="F112" t="n">
-        <v>0.05641758000000001</v>
+        <v>56.41758000000001</v>
       </c>
     </row>
     <row r="113">
@@ -2623,7 +2623,7 @@
         <v>26.07</v>
       </c>
       <c r="F113" t="n">
-        <v>0.05704116000000001</v>
+        <v>57.04116</v>
       </c>
     </row>
     <row r="114">
@@ -2643,7 +2643,7 @@
         <v>27.915</v>
       </c>
       <c r="F114" t="n">
-        <v>0.06152466</v>
+        <v>61.52466</v>
       </c>
     </row>
     <row r="115">
@@ -2663,7 +2663,7 @@
         <v>30.66</v>
       </c>
       <c r="F115" t="n">
-        <v>0.06671616</v>
+        <v>66.71616</v>
       </c>
     </row>
     <row r="116">
@@ -2683,7 +2683,7 @@
         <v>34.035</v>
       </c>
       <c r="F116" t="n">
-        <v>0.07433243999999999</v>
+        <v>74.33243999999999</v>
       </c>
     </row>
     <row r="117">
@@ -2703,7 +2703,7 @@
         <v>35.685</v>
       </c>
       <c r="F117" t="n">
-        <v>0.07822152</v>
+        <v>78.22152</v>
       </c>
     </row>
     <row r="118">
@@ -2723,7 +2723,7 @@
         <v>33.66</v>
       </c>
       <c r="F118" t="n">
-        <v>0.07324415999999999</v>
+        <v>73.24415999999999</v>
       </c>
     </row>
     <row r="119">
@@ -2743,7 +2743,7 @@
         <v>33.06</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0720708</v>
+        <v>72.07080000000001</v>
       </c>
     </row>
     <row r="120">
@@ -2763,7 +2763,7 @@
         <v>34.41</v>
       </c>
       <c r="F120" t="n">
-        <v>0.07515144</v>
+        <v>75.15143999999999</v>
       </c>
     </row>
     <row r="121">
@@ -2783,7 +2783,7 @@
         <v>44.175</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0964782</v>
+        <v>96.4782</v>
       </c>
     </row>
     <row r="122">
@@ -2803,7 +2803,7 @@
         <v>65.355</v>
       </c>
       <c r="F122" t="n">
-        <v>0.14456526</v>
+        <v>144.56526</v>
       </c>
     </row>
     <row r="123">
@@ -2823,7 +2823,7 @@
         <v>92.13</v>
       </c>
       <c r="F123" t="n">
-        <v>0.2045286</v>
+        <v>204.5286</v>
       </c>
     </row>
     <row r="124">
@@ -2843,7 +2843,7 @@
         <v>46.575</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1019061</v>
+        <v>101.9061</v>
       </c>
     </row>
     <row r="125">
@@ -2863,7 +2863,7 @@
         <v>34.035</v>
       </c>
       <c r="F125" t="n">
-        <v>0.07433243999999999</v>
+        <v>74.33243999999999</v>
       </c>
     </row>
     <row r="126">
@@ -2883,7 +2883,7 @@
         <v>34.26</v>
       </c>
       <c r="F126" t="n">
-        <v>0.07482384</v>
+        <v>74.82384</v>
       </c>
     </row>
     <row r="127">
@@ -2903,7 +2903,7 @@
         <v>34.695</v>
       </c>
       <c r="F127" t="n">
-        <v>0.07619022000000002</v>
+        <v>76.19022000000001</v>
       </c>
     </row>
     <row r="128">
@@ -2923,7 +2923,7 @@
         <v>34.995</v>
       </c>
       <c r="F128" t="n">
-        <v>0.07642908</v>
+        <v>76.42908</v>
       </c>
     </row>
     <row r="129">
@@ -2943,7 +2943,7 @@
         <v>40.59</v>
       </c>
       <c r="F129" t="n">
-        <v>0.089298</v>
+        <v>89.298</v>
       </c>
     </row>
     <row r="130">
@@ -2963,7 +2963,7 @@
         <v>25.335</v>
       </c>
       <c r="F130" t="n">
-        <v>0.05452091999999999</v>
+        <v>54.52091999999999</v>
       </c>
     </row>
     <row r="131">
@@ -2983,7 +2983,7 @@
         <v>23.835</v>
       </c>
       <c r="F131" t="n">
-        <v>0.05262768</v>
+        <v>52.62768000000001</v>
       </c>
     </row>
     <row r="132">
@@ -3003,7 +3003,7 @@
         <v>22.335</v>
       </c>
       <c r="F132" t="n">
-        <v>0.04949436000000001</v>
+        <v>49.49436000000001</v>
       </c>
     </row>
     <row r="133">
@@ -3023,7 +3023,7 @@
         <v>20.94</v>
       </c>
       <c r="F133" t="n">
-        <v>0.04531416</v>
+        <v>45.31416</v>
       </c>
     </row>
     <row r="134">
@@ -3043,7 +3043,7 @@
         <v>20.745</v>
       </c>
       <c r="F134" t="n">
-        <v>0.04613688000000001</v>
+        <v>46.13688000000001</v>
       </c>
     </row>
     <row r="135">
@@ -3063,7 +3063,7 @@
         <v>22.08</v>
       </c>
       <c r="F135" t="n">
-        <v>0.048576</v>
+        <v>48.576</v>
       </c>
     </row>
     <row r="136">
@@ -3083,7 +3083,7 @@
         <v>23.865</v>
       </c>
       <c r="F136" t="n">
-        <v>0.05173932</v>
+        <v>51.73932</v>
       </c>
     </row>
     <row r="137">
@@ -3103,7 +3103,7 @@
         <v>23.685</v>
       </c>
       <c r="F137" t="n">
-        <v>0.05172804</v>
+        <v>51.72804</v>
       </c>
     </row>
     <row r="138">
@@ -3123,7 +3123,7 @@
         <v>22.455</v>
       </c>
       <c r="F138" t="n">
-        <v>0.04877226</v>
+        <v>48.77226</v>
       </c>
     </row>
     <row r="139">
@@ -3143,7 +3143,7 @@
         <v>22.575</v>
       </c>
       <c r="F139" t="n">
-        <v>0.04912320000000001</v>
+        <v>49.12320000000001</v>
       </c>
     </row>
     <row r="140">
@@ -3163,7 +3163,7 @@
         <v>24.135</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0526143</v>
+        <v>52.6143</v>
       </c>
     </row>
     <row r="141">
@@ -3183,7 +3183,7 @@
         <v>25.605</v>
       </c>
       <c r="F141" t="n">
-        <v>0.05540922</v>
+        <v>55.40922</v>
       </c>
     </row>
     <row r="142">
@@ -3203,7 +3203,7 @@
         <v>25.215</v>
       </c>
       <c r="F142" t="n">
-        <v>0.05436354</v>
+        <v>54.36354</v>
       </c>
     </row>
     <row r="143">
@@ -3223,7 +3223,7 @@
         <v>25.35</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0555672</v>
+        <v>55.5672</v>
       </c>
     </row>
     <row r="144">
@@ -3243,7 +3243,7 @@
         <v>25.47</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0550152</v>
+        <v>55.0152</v>
       </c>
     </row>
     <row r="145">
@@ -3263,7 +3263,7 @@
         <v>25.005</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0545109</v>
+        <v>54.5109</v>
       </c>
     </row>
     <row r="146">
@@ -3283,7 +3283,7 @@
         <v>25.215</v>
       </c>
       <c r="F146" t="n">
-        <v>0.05416182000000001</v>
+        <v>54.16182000000001</v>
       </c>
     </row>
     <row r="147">
@@ -3303,7 +3303,7 @@
         <v>28.83</v>
       </c>
       <c r="F147" t="n">
-        <v>0.06261876</v>
+        <v>62.61875999999999</v>
       </c>
     </row>
     <row r="148">
@@ -3323,7 +3323,7 @@
         <v>62.47499999999999</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1381947</v>
+        <v>138.1947</v>
       </c>
     </row>
     <row r="149">
@@ -3343,7 +3343,7 @@
         <v>62.715</v>
       </c>
       <c r="F149" t="n">
-        <v>0.137973</v>
+        <v>137.973</v>
       </c>
     </row>
     <row r="150">
@@ -3363,7 +3363,7 @@
         <v>26.85</v>
       </c>
       <c r="F150" t="n">
-        <v>0.058533</v>
+        <v>58.533</v>
       </c>
     </row>
     <row r="151">
@@ -3383,7 +3383,7 @@
         <v>22.41</v>
       </c>
       <c r="F151" t="n">
-        <v>0.04849524</v>
+        <v>48.49524</v>
       </c>
     </row>
     <row r="152">
@@ -3403,7 +3403,7 @@
         <v>21.555</v>
       </c>
       <c r="F152" t="n">
-        <v>0.04630014</v>
+        <v>46.30014</v>
       </c>
     </row>
     <row r="153">
@@ -3423,7 +3423,7 @@
         <v>20.655</v>
       </c>
       <c r="F153" t="n">
-        <v>0.04560624</v>
+        <v>45.60624</v>
       </c>
     </row>
     <row r="154">
@@ -3443,7 +3443,7 @@
         <v>19.995</v>
       </c>
       <c r="F154" t="n">
-        <v>0.04334916</v>
+        <v>43.34916</v>
       </c>
     </row>
     <row r="155">
@@ -3463,7 +3463,7 @@
         <v>19.605</v>
       </c>
       <c r="F155" t="n">
-        <v>0.04297416</v>
+        <v>42.97416</v>
       </c>
     </row>
     <row r="156">
@@ -3483,7 +3483,7 @@
         <v>19.755</v>
       </c>
       <c r="F156" t="n">
-        <v>0.04361904</v>
+        <v>43.61904</v>
       </c>
     </row>
     <row r="157">
@@ -3503,7 +3503,7 @@
         <v>20.025</v>
       </c>
       <c r="F157" t="n">
-        <v>0.044055</v>
+        <v>44.055</v>
       </c>
     </row>
     <row r="158">
@@ -3523,7 +3523,7 @@
         <v>20.145</v>
       </c>
       <c r="F158" t="n">
-        <v>0.04359378000000001</v>
+        <v>43.59378000000001</v>
       </c>
     </row>
     <row r="159">
@@ -3543,7 +3543,7 @@
         <v>20.46</v>
       </c>
       <c r="F159" t="n">
-        <v>0.04427544000000001</v>
+        <v>44.27544000000001</v>
       </c>
     </row>
     <row r="160">
@@ -3563,7 +3563,7 @@
         <v>20.535</v>
       </c>
       <c r="F160" t="n">
-        <v>0.04419132000000001</v>
+        <v>44.19132000000001</v>
       </c>
     </row>
     <row r="161">
@@ -3583,7 +3583,7 @@
         <v>19.74</v>
       </c>
       <c r="F161" t="n">
-        <v>0.04295424</v>
+        <v>42.95424</v>
       </c>
     </row>
     <row r="162">
@@ -3603,7 +3603,7 @@
         <v>18.825</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0413397</v>
+        <v>41.3397</v>
       </c>
     </row>
     <row r="163">
@@ -3623,7 +3623,7 @@
         <v>18.27</v>
       </c>
       <c r="F163" t="n">
-        <v>0.03997476000000001</v>
+        <v>39.97476000000001</v>
       </c>
     </row>
     <row r="164">
@@ -3643,7 +3643,7 @@
         <v>18.345</v>
       </c>
       <c r="F164" t="n">
-        <v>0.04050576</v>
+        <v>40.50576</v>
       </c>
     </row>
     <row r="165">
@@ -3663,7 +3663,7 @@
         <v>18.66</v>
       </c>
       <c r="F165" t="n">
-        <v>0.04082808</v>
+        <v>40.82808</v>
       </c>
     </row>
     <row r="166">
@@ -3683,7 +3683,7 @@
         <v>19.485</v>
       </c>
       <c r="F166" t="n">
-        <v>0.04232142000000001</v>
+        <v>42.32142000000001</v>
       </c>
     </row>
     <row r="167">
@@ -3703,7 +3703,7 @@
         <v>20.67</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0450606</v>
+        <v>45.0606</v>
       </c>
     </row>
     <row r="168">
@@ -3723,7 +3723,7 @@
         <v>21.6</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0476064</v>
+        <v>47.6064</v>
       </c>
     </row>
     <row r="169">
@@ -3743,7 +3743,7 @@
         <v>22.29</v>
       </c>
       <c r="F169" t="n">
-        <v>0.04850304</v>
+        <v>48.50304</v>
       </c>
     </row>
     <row r="170">
@@ -3763,7 +3763,7 @@
         <v>25.05</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0540078</v>
+        <v>54.0078</v>
       </c>
     </row>
     <row r="171">
@@ -3783,7 +3783,7 @@
         <v>27.615</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0602007</v>
+        <v>60.2007</v>
       </c>
     </row>
     <row r="172">
@@ -3803,7 +3803,7 @@
         <v>30.105</v>
       </c>
       <c r="F172" t="n">
-        <v>0.06586974000000001</v>
+        <v>65.86974000000001</v>
       </c>
     </row>
     <row r="173">
@@ -3823,7 +3823,7 @@
         <v>27.495</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0599391</v>
+        <v>59.9391</v>
       </c>
     </row>
     <row r="174">
@@ -3843,7 +3843,7 @@
         <v>24.96</v>
       </c>
       <c r="F174" t="n">
-        <v>0.05461248</v>
+        <v>54.61248</v>
       </c>
     </row>
     <row r="175">
@@ -3863,7 +3863,7 @@
         <v>20.385</v>
       </c>
       <c r="F175" t="n">
-        <v>0.04427622000000001</v>
+        <v>44.27622000000001</v>
       </c>
     </row>
     <row r="176">
@@ -3883,7 +3883,7 @@
         <v>22.575</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0492135</v>
+        <v>49.2135</v>
       </c>
     </row>
     <row r="177">
@@ -3903,7 +3903,7 @@
         <v>23.46</v>
       </c>
       <c r="F177" t="n">
-        <v>0.05151816000000001</v>
+        <v>51.51816000000001</v>
       </c>
     </row>
     <row r="178">
@@ -3923,7 +3923,7 @@
         <v>22.005</v>
       </c>
       <c r="F178" t="n">
-        <v>0.04744278</v>
+        <v>47.44278</v>
       </c>
     </row>
     <row r="179">
@@ -3943,7 +3943,7 @@
         <v>20.265</v>
       </c>
       <c r="F179" t="n">
-        <v>0.04442088</v>
+        <v>44.42088</v>
       </c>
     </row>
     <row r="180">
@@ -3963,7 +3963,7 @@
         <v>15.75</v>
       </c>
       <c r="F180" t="n">
-        <v>0.03483900000000001</v>
+        <v>34.83900000000001</v>
       </c>
     </row>
     <row r="181">
@@ -3983,7 +3983,7 @@
         <v>13.11</v>
       </c>
       <c r="F181" t="n">
-        <v>0.02847492</v>
+        <v>28.47492</v>
       </c>
     </row>
     <row r="182">
@@ -4003,7 +4003,7 @@
         <v>12.39</v>
       </c>
       <c r="F182" t="n">
-        <v>0.02686152</v>
+        <v>26.86152</v>
       </c>
     </row>
     <row r="183">
@@ -4023,7 +4023,7 @@
         <v>11.985</v>
       </c>
       <c r="F183" t="n">
-        <v>0.02617524</v>
+        <v>26.17524</v>
       </c>
     </row>
     <row r="184">
@@ -4043,7 +4043,7 @@
         <v>12.015</v>
       </c>
       <c r="F184" t="n">
-        <v>0.02648106</v>
+        <v>26.48106</v>
       </c>
     </row>
     <row r="185">
@@ -4063,7 +4063,7 @@
         <v>12.645</v>
       </c>
       <c r="F185" t="n">
-        <v>0.02766726</v>
+        <v>27.66726</v>
       </c>
     </row>
     <row r="186">
@@ -4083,7 +4083,7 @@
         <v>13.92</v>
       </c>
       <c r="F186" t="n">
-        <v>0.03106944</v>
+        <v>31.06944</v>
       </c>
     </row>
     <row r="187">
@@ -4103,7 +4103,7 @@
         <v>15.645</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0337932</v>
+        <v>33.79320000000001</v>
       </c>
     </row>
     <row r="188">
@@ -4123,7 +4123,7 @@
         <v>17.055</v>
       </c>
       <c r="F188" t="n">
-        <v>0.03690702000000001</v>
+        <v>36.90702000000001</v>
       </c>
     </row>
     <row r="189">
@@ -4143,7 +4143,7 @@
         <v>17.655</v>
       </c>
       <c r="F189" t="n">
-        <v>0.03898223999999999</v>
+        <v>38.98223999999999</v>
       </c>
     </row>
     <row r="190">
@@ -4163,7 +4163,7 @@
         <v>17.37</v>
       </c>
       <c r="F190" t="n">
-        <v>0.03800556</v>
+        <v>38.00556</v>
       </c>
     </row>
     <row r="191">
@@ -4183,7 +4183,7 @@
         <v>16.92</v>
       </c>
       <c r="F191" t="n">
-        <v>0.03668256</v>
+        <v>36.68256</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4203,7 @@
         <v>17.145</v>
       </c>
       <c r="F192" t="n">
-        <v>0.037719</v>
+        <v>37.719</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>17.535</v>
       </c>
       <c r="F193" t="n">
-        <v>0.03913812</v>
+        <v>39.13812</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>18.045</v>
       </c>
       <c r="F194" t="n">
-        <v>0.03962682</v>
+        <v>39.62682</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>18.99</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0413982</v>
+        <v>41.3982</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>19.17</v>
       </c>
       <c r="F196" t="n">
-        <v>0.04133052</v>
+        <v>41.33052</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>17.64</v>
       </c>
       <c r="F197" t="n">
-        <v>0.03782016</v>
+        <v>37.82016</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>17.22</v>
       </c>
       <c r="F198" t="n">
-        <v>0.03829728</v>
+        <v>38.29728</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>16.965</v>
       </c>
       <c r="F199" t="n">
-        <v>0.03725514000000001</v>
+        <v>37.25514000000001</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>16.635</v>
       </c>
       <c r="F200" t="n">
-        <v>0.03606467999999999</v>
+        <v>36.06467999999999</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>17.055</v>
       </c>
       <c r="F201" t="n">
-        <v>0.03670236</v>
+        <v>36.70236000000001</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>15.615</v>
       </c>
       <c r="F202" t="n">
-        <v>0.03360348000000001</v>
+        <v>33.60348000000001</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>14.295</v>
       </c>
       <c r="F203" t="n">
-        <v>0.03013386</v>
+        <v>30.13386</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>13.77</v>
       </c>
       <c r="F204" t="n">
-        <v>0.0300186</v>
+        <v>30.0186</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>13.665</v>
       </c>
       <c r="F205" t="n">
-        <v>0.02989902</v>
+        <v>29.89902</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>13.41</v>
       </c>
       <c r="F206" t="n">
-        <v>0.02944836</v>
+        <v>29.44836</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>13.095</v>
       </c>
       <c r="F207" t="n">
-        <v>0.02833758</v>
+        <v>28.33758</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>12.84</v>
       </c>
       <c r="F208" t="n">
-        <v>0.028248</v>
+        <v>28.248</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>12.72</v>
       </c>
       <c r="F209" t="n">
-        <v>0.027984</v>
+        <v>27.984</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>12.675</v>
       </c>
       <c r="F210" t="n">
-        <v>0.0280371</v>
+        <v>28.0371</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>11.82</v>
       </c>
       <c r="F211" t="n">
-        <v>0.0252948</v>
+        <v>25.2948</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>11.715</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0253044</v>
+        <v>25.3044</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>12.195</v>
       </c>
       <c r="F213" t="n">
-        <v>0.02663388</v>
+        <v>26.63388</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>13.125</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0281925</v>
+        <v>28.1925</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>13.485</v>
       </c>
       <c r="F215" t="n">
-        <v>0.02982882</v>
+        <v>29.82882</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>13.53</v>
       </c>
       <c r="F216" t="n">
-        <v>0.02911656</v>
+        <v>29.11656</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>13.245</v>
       </c>
       <c r="F217" t="n">
-        <v>0.02845026</v>
+        <v>28.45026</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>12.825</v>
       </c>
       <c r="F218" t="n">
-        <v>0.0279072</v>
+        <v>27.9072</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>12.375</v>
       </c>
       <c r="F219" t="n">
-        <v>0.027027</v>
+        <v>27.027</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>12.03</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0262254</v>
+        <v>26.2254</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>11.76</v>
       </c>
       <c r="F221" t="n">
-        <v>0.02568384</v>
+        <v>25.68384</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>11.595</v>
       </c>
       <c r="F222" t="n">
-        <v>0.02555538</v>
+        <v>25.55538</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>12.09</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0263562</v>
+        <v>26.3562</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>12.405</v>
       </c>
       <c r="F224" t="n">
-        <v>0.02674518</v>
+        <v>26.74518</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>12.09</v>
       </c>
       <c r="F225" t="n">
-        <v>0.02553408</v>
+        <v>25.53408</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>11.67</v>
       </c>
       <c r="F226" t="n">
-        <v>0.02492712</v>
+        <v>24.92712</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>10.365</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0219738</v>
+        <v>21.9738</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>9.93</v>
       </c>
       <c r="F228" t="n">
-        <v>0.02160768</v>
+        <v>21.60768</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>10.11</v>
       </c>
       <c r="F229" t="n">
-        <v>0.02220156</v>
+        <v>22.20156</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>10.29</v>
       </c>
       <c r="F230" t="n">
-        <v>0.02193828</v>
+        <v>21.93828</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>8.955</v>
       </c>
       <c r="F231" t="n">
-        <v>0.019701</v>
+        <v>19.701</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>8.73</v>
       </c>
       <c r="F232" t="n">
-        <v>0.01917108</v>
+        <v>19.17108</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>8.789999999999999</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0191622</v>
+        <v>19.1622</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>9.645</v>
       </c>
       <c r="F234" t="n">
-        <v>0.02056314</v>
+        <v>20.56314</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>8.25</v>
       </c>
       <c r="F235" t="n">
-        <v>0.01815</v>
+        <v>18.15</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="F236" t="n">
-        <v>0.01811268</v>
+        <v>18.11268</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="F237" t="n">
-        <v>0.01904256</v>
+        <v>19.04256</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>7.71</v>
       </c>
       <c r="F238" t="n">
-        <v>0.01693116</v>
+        <v>16.93116</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>7.71</v>
       </c>
       <c r="F239" t="n">
-        <v>0.01671528</v>
+        <v>16.71528</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>8.744999999999999</v>
       </c>
       <c r="F240" t="n">
-        <v>0.0190641</v>
+        <v>19.0641</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>8.91</v>
       </c>
       <c r="F241" t="n">
-        <v>0.01920996</v>
+        <v>19.20996</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>8.324999999999999</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0178821</v>
+        <v>17.8821</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>7.635</v>
       </c>
       <c r="F243" t="n">
-        <v>0.01667484</v>
+        <v>16.67484</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>7.215</v>
       </c>
       <c r="F244" t="n">
-        <v>0.01564212</v>
+        <v>15.64212</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>7.08</v>
       </c>
       <c r="F245" t="n">
-        <v>0.01563264</v>
+        <v>15.63264</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>6.93</v>
       </c>
       <c r="F246" t="n">
-        <v>0.01507968</v>
+        <v>15.07968</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0149592</v>
+        <v>14.9592</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>6.944999999999999</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0150012</v>
+        <v>15.0012</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="F249" t="n">
-        <v>0.01743072</v>
+        <v>17.43072</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>8.34</v>
       </c>
       <c r="F250" t="n">
-        <v>0.018348</v>
+        <v>18.348</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>8.025</v>
       </c>
       <c r="F251" t="n">
-        <v>0.017655</v>
+        <v>17.655</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>7.859999999999999</v>
       </c>
       <c r="F252" t="n">
-        <v>0.01710336</v>
+        <v>17.10336</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>7.08</v>
       </c>
       <c r="F253" t="n">
-        <v>0.01563264</v>
+        <v>15.63264</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>6.42</v>
       </c>
       <c r="F254" t="n">
-        <v>0.01384152</v>
+        <v>13.84152</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>6.39</v>
       </c>
       <c r="F255" t="n">
-        <v>0.01416024</v>
+        <v>14.16024</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>6.345</v>
       </c>
       <c r="F256" t="n">
-        <v>0.01375596</v>
+        <v>13.75596</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>6.435</v>
       </c>
       <c r="F257" t="n">
-        <v>0.0138996</v>
+        <v>13.8996</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>6.465</v>
       </c>
       <c r="F258" t="n">
-        <v>0.01391268</v>
+        <v>13.91268</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>6.54</v>
       </c>
       <c r="F259" t="n">
-        <v>0.0142572</v>
+        <v>14.2572</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>6.675</v>
       </c>
       <c r="F260" t="n">
-        <v>0.0143913</v>
+        <v>14.3913</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>6.84</v>
       </c>
       <c r="F261" t="n">
-        <v>0.01474704</v>
+        <v>14.74704</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>7.05</v>
       </c>
       <c r="F262" t="n">
-        <v>0.0156228</v>
+        <v>15.6228</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>7.92</v>
       </c>
       <c r="F263" t="n">
-        <v>0.01675872</v>
+        <v>16.75872</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>7.095</v>
       </c>
       <c r="F264" t="n">
-        <v>0.01543872</v>
+        <v>15.43872</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>6.675</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0142311</v>
+        <v>14.2311</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>6.404999999999999</v>
       </c>
       <c r="F266" t="n">
-        <v>0.01388604</v>
+        <v>13.88604</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>6.27</v>
       </c>
       <c r="F267" t="n">
-        <v>0.01334256</v>
+        <v>13.34256</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>6.255</v>
       </c>
       <c r="F268" t="n">
-        <v>0.01371096</v>
+        <v>13.71096</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>6.33</v>
       </c>
       <c r="F269" t="n">
-        <v>0.01369812</v>
+        <v>13.69812</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>6.465</v>
       </c>
       <c r="F270" t="n">
-        <v>0.0140937</v>
+        <v>14.0937</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>6.51</v>
       </c>
       <c r="F271" t="n">
-        <v>0.01403556</v>
+        <v>14.03556</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>6.435</v>
       </c>
       <c r="F272" t="n">
-        <v>0.01395108</v>
+        <v>13.95108</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>6.54</v>
       </c>
       <c r="F273" t="n">
-        <v>0.01423104</v>
+        <v>14.23104</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>7.515</v>
       </c>
       <c r="F274" t="n">
-        <v>0.01680354</v>
+        <v>16.80354</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0149868</v>
+        <v>14.9868</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>6.705</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0148851</v>
+        <v>14.8851</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>6.675</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0139374</v>
+        <v>13.9374</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>6.614999999999999</v>
       </c>
       <c r="F278" t="n">
-        <v>0.01452654</v>
+        <v>14.52654</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="F279" t="n">
-        <v>0.0152076</v>
+        <v>15.2076</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>6.495</v>
       </c>
       <c r="F280" t="n">
-        <v>0.01436694</v>
+        <v>14.36694</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>6.51</v>
       </c>
       <c r="F281" t="n">
-        <v>0.0139314</v>
+        <v>13.9314</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>7.109999999999999</v>
       </c>
       <c r="F282" t="n">
-        <v>0.01552824</v>
+        <v>15.52824</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>7.8</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0172536</v>
+        <v>17.2536</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>7.815</v>
       </c>
       <c r="F284" t="n">
-        <v>0.01697418</v>
+        <v>16.97418</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>7.694999999999999</v>
       </c>
       <c r="F285" t="n">
-        <v>0.01668276</v>
+        <v>16.68276</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>7.665</v>
       </c>
       <c r="F286" t="n">
-        <v>0.01643376</v>
+        <v>16.43376</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>7.68</v>
       </c>
       <c r="F287" t="n">
-        <v>0.01649664</v>
+        <v>16.49664</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>7.68</v>
       </c>
       <c r="F288" t="n">
-        <v>0.01615872</v>
+        <v>16.15872</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>7.739999999999999</v>
       </c>
       <c r="F289" t="n">
-        <v>0.01637784</v>
+        <v>16.37784</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>7.77</v>
       </c>
       <c r="F290" t="n">
-        <v>0.01681428</v>
+        <v>16.81428</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>7.665</v>
       </c>
       <c r="F291" t="n">
-        <v>0.01631112</v>
+        <v>16.31112</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>7.245</v>
       </c>
       <c r="F292" t="n">
-        <v>0.01570716</v>
+        <v>15.70716</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>7.574999999999999</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0165741</v>
+        <v>16.5741</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>6.404999999999999</v>
       </c>
       <c r="F294" t="n">
-        <v>0.01452654</v>
+        <v>14.52654</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>6.315</v>
       </c>
       <c r="F295" t="n">
-        <v>0.01333728</v>
+        <v>13.33728</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>6.27</v>
       </c>
       <c r="F296" t="n">
-        <v>0.01384416</v>
+        <v>13.84416</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>6.194999999999999</v>
       </c>
       <c r="F297" t="n">
-        <v>0.01377768</v>
+        <v>13.77768</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>6.194999999999999</v>
       </c>
       <c r="F298" t="n">
-        <v>0.01377768</v>
+        <v>13.77768</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>6.165</v>
       </c>
       <c r="F299" t="n">
-        <v>0.01316844</v>
+        <v>13.16844</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>6.12</v>
       </c>
       <c r="F300" t="n">
-        <v>0.01351296</v>
+        <v>13.51296</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>6.12</v>
       </c>
       <c r="F301" t="n">
-        <v>0.01351296</v>
+        <v>13.51296</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>6.135</v>
       </c>
       <c r="F302" t="n">
-        <v>0.01327614</v>
+        <v>13.27614</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>6.21</v>
       </c>
       <c r="F303" t="n">
-        <v>0.0134136</v>
+        <v>13.4136</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6443,7 @@
         <v>6.3</v>
       </c>
       <c r="F304" t="n">
-        <v>0.0134064</v>
+        <v>13.4064</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6463,7 @@
         <v>6.39</v>
       </c>
       <c r="F305" t="n">
-        <v>0.01387908</v>
+        <v>13.87908</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6483,7 @@
         <v>6.465</v>
       </c>
       <c r="F306" t="n">
-        <v>0.01424886</v>
+        <v>14.24886</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6503,7 @@
         <v>6.585</v>
       </c>
       <c r="F307" t="n">
-        <v>0.0142236</v>
+        <v>14.2236</v>
       </c>
     </row>
     <row r="308">
@@ -6523,7 +6523,7 @@
         <v>6.75</v>
       </c>
       <c r="F308" t="n">
-        <v>0.014769</v>
+        <v>14.769</v>
       </c>
     </row>
     <row r="309">
@@ -6543,7 +6543,7 @@
         <v>7.005</v>
       </c>
       <c r="F309" t="n">
-        <v>0.01571922</v>
+        <v>15.71922</v>
       </c>
     </row>
     <row r="310">
@@ -6563,7 +6563,7 @@
         <v>7.35</v>
       </c>
       <c r="F310" t="n">
-        <v>0.0161112</v>
+        <v>16.1112</v>
       </c>
     </row>
     <row r="311">
@@ -6583,7 +6583,7 @@
         <v>7.68</v>
       </c>
       <c r="F311" t="n">
-        <v>0.01661952</v>
+        <v>16.61952</v>
       </c>
     </row>
     <row r="312">
@@ -6603,7 +6603,7 @@
         <v>7.965</v>
       </c>
       <c r="F312" t="n">
-        <v>0.0172044</v>
+        <v>17.2044</v>
       </c>
     </row>
     <row r="313">
@@ -6623,7 +6623,7 @@
         <v>8.31</v>
       </c>
       <c r="F313" t="n">
-        <v>0.01808256</v>
+        <v>18.08256</v>
       </c>
     </row>
     <row r="314">
@@ -6643,7 +6643,7 @@
         <v>9.06</v>
       </c>
       <c r="F314" t="n">
-        <v>0.01967832</v>
+        <v>19.67832</v>
       </c>
     </row>
     <row r="315">
@@ -6663,7 +6663,7 @@
         <v>9.48</v>
       </c>
       <c r="F315" t="n">
-        <v>0.02051472</v>
+        <v>20.51472</v>
       </c>
     </row>
     <row r="316">
@@ -6683,7 +6683,7 @@
         <v>10.86</v>
       </c>
       <c r="F316" t="n">
-        <v>0.02376168</v>
+        <v>23.76168</v>
       </c>
     </row>
     <row r="317">
@@ -6703,7 +6703,7 @@
         <v>11.79</v>
       </c>
       <c r="F317" t="n">
-        <v>0.0252306</v>
+        <v>25.2306</v>
       </c>
     </row>
     <row r="318">
@@ -6723,7 +6723,7 @@
         <v>12.06</v>
       </c>
       <c r="F318" t="n">
-        <v>0.02609784</v>
+        <v>26.09784</v>
       </c>
     </row>
     <row r="319">
@@ -6743,7 +6743,7 @@
         <v>12.27</v>
       </c>
       <c r="F319" t="n">
-        <v>0.02645412</v>
+        <v>26.45412</v>
       </c>
     </row>
     <row r="320">
@@ -6763,7 +6763,7 @@
         <v>12.855</v>
       </c>
       <c r="F320" t="n">
-        <v>0.02766396</v>
+        <v>27.66396</v>
       </c>
     </row>
     <row r="321">
@@ -6783,7 +6783,7 @@
         <v>13.245</v>
       </c>
       <c r="F321" t="n">
-        <v>0.02813238</v>
+        <v>28.13238</v>
       </c>
     </row>
     <row r="322">
@@ -6803,7 +6803,7 @@
         <v>13.515</v>
       </c>
       <c r="F322" t="n">
-        <v>0.02940864</v>
+        <v>29.40864</v>
       </c>
     </row>
     <row r="323">
@@ -6823,7 +6823,7 @@
         <v>13.455</v>
       </c>
       <c r="F323" t="n">
-        <v>0.02976246</v>
+        <v>29.76246</v>
       </c>
     </row>
     <row r="324">
@@ -6843,7 +6843,7 @@
         <v>13.32</v>
       </c>
       <c r="F324" t="n">
-        <v>0.0285048</v>
+        <v>28.5048</v>
       </c>
     </row>
     <row r="325">
@@ -6863,7 +6863,7 @@
         <v>13.365</v>
       </c>
       <c r="F325" t="n">
-        <v>0.029403</v>
+        <v>29.403</v>
       </c>
     </row>
     <row r="326">
@@ -6883,7 +6883,7 @@
         <v>13.44</v>
       </c>
       <c r="F326" t="n">
-        <v>0.02924544</v>
+        <v>29.24544</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6903,7 @@
         <v>13.515</v>
       </c>
       <c r="F327" t="n">
-        <v>0.02984112</v>
+        <v>29.84112</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6923,7 @@
         <v>13.635</v>
       </c>
       <c r="F328" t="n">
-        <v>0.02977884</v>
+        <v>29.77884</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6943,7 @@
         <v>13.86</v>
       </c>
       <c r="F329" t="n">
-        <v>0.03032568</v>
+        <v>30.32568</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6963,7 @@
         <v>13.965</v>
       </c>
       <c r="F330" t="n">
-        <v>0.03061128</v>
+        <v>30.61128</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6983,7 @@
         <v>13.905</v>
       </c>
       <c r="F331" t="n">
-        <v>0.03081348</v>
+        <v>30.81348</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7003,7 @@
         <v>13.755</v>
       </c>
       <c r="F332" t="n">
-        <v>0.02921562</v>
+        <v>29.21562</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7023,7 @@
         <v>13.56</v>
       </c>
       <c r="F333" t="n">
-        <v>0.02939808</v>
+        <v>29.39808</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7043,7 @@
         <v>13.2</v>
       </c>
       <c r="F334" t="n">
-        <v>0.028776</v>
+        <v>28.776</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7063,7 @@
         <v>12.87</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0280566</v>
+        <v>28.0566</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7083,7 @@
         <v>12.405</v>
       </c>
       <c r="F336" t="n">
-        <v>0.02734062</v>
+        <v>27.34062</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7103,7 @@
         <v>11.58</v>
       </c>
       <c r="F337" t="n">
-        <v>0.02515176</v>
+        <v>25.15176</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7123,7 @@
         <v>11.01</v>
       </c>
       <c r="F338" t="n">
-        <v>0.02417796</v>
+        <v>24.17796</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7143,7 @@
         <v>10.77</v>
       </c>
       <c r="F339" t="n">
-        <v>0.02334936</v>
+        <v>23.34936</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7163,7 @@
         <v>10.68</v>
       </c>
       <c r="F340" t="n">
-        <v>0.02345328</v>
+        <v>23.45328</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7183,7 @@
         <v>10.38</v>
       </c>
       <c r="F341" t="n">
-        <v>0.02250384</v>
+        <v>22.50384</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7203,7 @@
         <v>10.08</v>
       </c>
       <c r="F342" t="n">
-        <v>0.02189376</v>
+        <v>21.89376</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7223,7 @@
         <v>10.2</v>
       </c>
       <c r="F343" t="n">
-        <v>0.0220728</v>
+        <v>22.0728</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7243,7 @@
         <v>10.02</v>
       </c>
       <c r="F344" t="n">
-        <v>0.02160312</v>
+        <v>21.60312</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7263,7 @@
         <v>9.435</v>
       </c>
       <c r="F345" t="n">
-        <v>0.02041734</v>
+        <v>20.41734</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7283,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="F346" t="n">
-        <v>0.019866</v>
+        <v>19.866</v>
       </c>
     </row>
     <row r="347">
@@ -7303,7 +7303,7 @@
         <v>8.984999999999999</v>
       </c>
       <c r="F347" t="n">
-        <v>0.01955136</v>
+        <v>19.55136</v>
       </c>
     </row>
     <row r="348">
@@ -7323,7 +7323,7 @@
         <v>8.67</v>
       </c>
       <c r="F348" t="n">
-        <v>0.0187272</v>
+        <v>18.7272</v>
       </c>
     </row>
     <row r="349">
@@ -7343,7 +7343,7 @@
         <v>8.955</v>
       </c>
       <c r="F349" t="n">
-        <v>0.019701</v>
+        <v>19.701</v>
       </c>
     </row>
     <row r="350">
@@ -7363,7 +7363,7 @@
         <v>8.715</v>
       </c>
       <c r="F350" t="n">
-        <v>0.01913814</v>
+        <v>19.13814</v>
       </c>
     </row>
     <row r="351">
@@ -7383,7 +7383,7 @@
         <v>8.414999999999999</v>
       </c>
       <c r="F351" t="n">
-        <v>0.01858032</v>
+        <v>18.58032</v>
       </c>
     </row>
     <row r="352">
@@ -7403,7 +7403,7 @@
         <v>8.414999999999999</v>
       </c>
       <c r="F352" t="n">
-        <v>0.01821006</v>
+        <v>18.21006</v>
       </c>
     </row>
     <row r="353">
@@ -7423,7 +7423,7 @@
         <v>8.504999999999999</v>
       </c>
       <c r="F353" t="n">
-        <v>0.01857492</v>
+        <v>18.57492</v>
       </c>
     </row>
     <row r="354">
@@ -7443,7 +7443,7 @@
         <v>8.055</v>
       </c>
       <c r="F354" t="n">
-        <v>0.0175599</v>
+        <v>17.5599</v>
       </c>
     </row>
     <row r="355">
@@ -7463,7 +7463,7 @@
         <v>7.8</v>
       </c>
       <c r="F355" t="n">
-        <v>0.0170352</v>
+        <v>17.0352</v>
       </c>
     </row>
     <row r="356">
@@ -7483,7 +7483,7 @@
         <v>7.845</v>
       </c>
       <c r="F356" t="n">
-        <v>0.01691382</v>
+        <v>16.91382</v>
       </c>
     </row>
     <row r="357">
@@ -7503,7 +7503,7 @@
         <v>7.694999999999999</v>
       </c>
       <c r="F357" t="n">
-        <v>0.01686744</v>
+        <v>16.86744</v>
       </c>
     </row>
     <row r="358">
@@ -7523,7 +7523,7 @@
         <v>7.815</v>
       </c>
       <c r="F358" t="n">
-        <v>0.01709922</v>
+        <v>17.09922</v>
       </c>
     </row>
     <row r="359">
@@ -7543,7 +7543,7 @@
         <v>7.484999999999999</v>
       </c>
       <c r="F359" t="n">
-        <v>0.01637718</v>
+        <v>16.37718</v>
       </c>
     </row>
     <row r="360">
@@ -7563,7 +7563,7 @@
         <v>7.649999999999999</v>
       </c>
       <c r="F360" t="n">
-        <v>0.0164322</v>
+        <v>16.4322</v>
       </c>
     </row>
     <row r="361">
@@ -7583,7 +7583,7 @@
         <v>7.545</v>
       </c>
       <c r="F361" t="n">
-        <v>0.01635756</v>
+        <v>16.35756</v>
       </c>
     </row>
     <row r="362">
@@ -7603,7 +7603,7 @@
         <v>7.484999999999999</v>
       </c>
       <c r="F362" t="n">
-        <v>0.01640712</v>
+        <v>16.40712</v>
       </c>
     </row>
     <row r="363">
@@ -7623,7 +7623,7 @@
         <v>7.47</v>
       </c>
       <c r="F363" t="n">
-        <v>0.01607544</v>
+        <v>16.07544</v>
       </c>
     </row>
     <row r="364">
@@ -7643,7 +7643,7 @@
         <v>7.484999999999999</v>
       </c>
       <c r="F364" t="n">
-        <v>0.01634724</v>
+        <v>16.34724</v>
       </c>
     </row>
     <row r="365">
@@ -7663,7 +7663,7 @@
         <v>7.47</v>
       </c>
       <c r="F365" t="n">
-        <v>0.01664316</v>
+        <v>16.64316</v>
       </c>
     </row>
     <row r="366">
@@ -7683,7 +7683,7 @@
         <v>7.545</v>
       </c>
       <c r="F366" t="n">
-        <v>0.01638774</v>
+        <v>16.38774</v>
       </c>
     </row>
     <row r="367">
@@ -7703,7 +7703,7 @@
         <v>7.949999999999999</v>
       </c>
       <c r="F367" t="n">
-        <v>0.0170766</v>
+        <v>17.0766</v>
       </c>
     </row>
     <row r="368">
@@ -7723,7 +7723,7 @@
         <v>8.25</v>
       </c>
       <c r="F368" t="n">
-        <v>0.018249</v>
+        <v>18.249</v>
       </c>
     </row>
     <row r="369">
@@ -7743,7 +7743,7 @@
         <v>8.34</v>
       </c>
       <c r="F369" t="n">
-        <v>0.01844808</v>
+        <v>18.44808</v>
       </c>
     </row>
     <row r="370">
@@ -7763,7 +7763,7 @@
         <v>8.459999999999999</v>
       </c>
       <c r="F370" t="n">
-        <v>0.0181044</v>
+        <v>18.1044</v>
       </c>
     </row>
     <row r="371">
@@ -7783,7 +7783,7 @@
         <v>8.504999999999999</v>
       </c>
       <c r="F371" t="n">
-        <v>0.01816668</v>
+        <v>18.16668</v>
       </c>
     </row>
     <row r="372">
@@ -7803,7 +7803,7 @@
         <v>8.355</v>
       </c>
       <c r="F372" t="n">
-        <v>0.01824732</v>
+        <v>18.24732</v>
       </c>
     </row>
     <row r="373">
@@ -7823,7 +7823,7 @@
         <v>8.459999999999999</v>
       </c>
       <c r="F373" t="n">
-        <v>0.0181044</v>
+        <v>18.1044</v>
       </c>
     </row>
     <row r="374">
@@ -7843,7 +7843,7 @@
         <v>8.58</v>
       </c>
       <c r="F374" t="n">
-        <v>0.0187044</v>
+        <v>18.7044</v>
       </c>
     </row>
     <row r="375">
@@ -7863,7 +7863,7 @@
         <v>9.045</v>
       </c>
       <c r="F375" t="n">
-        <v>0.01957338</v>
+        <v>19.57338</v>
       </c>
     </row>
     <row r="376">
@@ -7883,7 +7883,7 @@
         <v>8.91</v>
       </c>
       <c r="F376" t="n">
-        <v>0.01928124</v>
+        <v>19.28124</v>
       </c>
     </row>
     <row r="377">
@@ -7903,7 +7903,7 @@
         <v>8.685</v>
       </c>
       <c r="F377" t="n">
-        <v>0.01907226</v>
+        <v>19.07226</v>
       </c>
     </row>
     <row r="378">
@@ -7923,7 +7923,7 @@
         <v>8.459999999999999</v>
       </c>
       <c r="F378" t="n">
-        <v>0.01871352</v>
+        <v>18.71352</v>
       </c>
     </row>
     <row r="379">
@@ -7943,7 +7943,7 @@
         <v>8.219999999999999</v>
       </c>
       <c r="F379" t="n">
-        <v>0.01772232</v>
+        <v>17.72232</v>
       </c>
     </row>
     <row r="380">
@@ -7963,7 +7963,7 @@
         <v>8.115</v>
       </c>
       <c r="F380" t="n">
-        <v>0.0172038</v>
+        <v>17.2038</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7983,7 @@
         <v>7.859999999999999</v>
       </c>
       <c r="F381" t="n">
-        <v>0.0171348</v>
+        <v>17.1348</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8003,7 @@
         <v>7.815</v>
       </c>
       <c r="F382" t="n">
-        <v>0.01713048</v>
+        <v>17.13048</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8023,7 @@
         <v>7.785</v>
       </c>
       <c r="F383" t="n">
-        <v>0.01718928</v>
+        <v>17.18928</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8043,7 @@
         <v>7.725</v>
       </c>
       <c r="F384" t="n">
-        <v>0.0165933</v>
+        <v>16.5933</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8063,7 @@
         <v>7.574999999999999</v>
       </c>
       <c r="F385" t="n">
-        <v>0.0162711</v>
+        <v>16.2711</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8083,7 @@
         <v>7.56</v>
       </c>
       <c r="F386" t="n">
-        <v>0.0164808</v>
+        <v>16.4808</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8103,7 @@
         <v>7.274999999999999</v>
       </c>
       <c r="F387" t="n">
-        <v>0.0156849</v>
+        <v>15.6849</v>
       </c>
     </row>
     <row r="388">
@@ -8123,7 +8123,7 @@
         <v>7.035</v>
       </c>
       <c r="F388" t="n">
-        <v>0.01508304</v>
+        <v>15.08304</v>
       </c>
     </row>
     <row r="389">
@@ -8143,7 +8143,7 @@
         <v>6.779999999999999</v>
       </c>
       <c r="F389" t="n">
-        <v>0.01488888</v>
+        <v>14.88888</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8163,7 @@
         <v>6.404999999999999</v>
       </c>
       <c r="F390" t="n">
-        <v>0.01386042</v>
+        <v>13.86042</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8183,7 @@
         <v>6.18</v>
       </c>
       <c r="F391" t="n">
-        <v>0.01312632</v>
+        <v>13.12632</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8203,7 @@
         <v>5.895</v>
       </c>
       <c r="F392" t="n">
-        <v>0.01254456</v>
+        <v>12.54456</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8223,7 @@
         <v>5.625</v>
       </c>
       <c r="F393" t="n">
-        <v>0.01242</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8243,7 @@
         <v>5.595</v>
       </c>
       <c r="F394" t="n">
-        <v>0.01235376</v>
+        <v>12.35376</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8263,7 @@
         <v>5.43</v>
       </c>
       <c r="F395" t="n">
-        <v>0.01155504</v>
+        <v>11.55504</v>
       </c>
     </row>
     <row r="396">
@@ -8283,7 +8283,7 @@
         <v>5.355</v>
       </c>
       <c r="F396" t="n">
-        <v>0.0114597</v>
+        <v>11.4597</v>
       </c>
     </row>
     <row r="397">
@@ -8303,7 +8303,7 @@
         <v>5.265</v>
       </c>
       <c r="F397" t="n">
-        <v>0.0113724</v>
+        <v>11.3724</v>
       </c>
     </row>
     <row r="398">
@@ -8323,7 +8323,7 @@
         <v>5.25</v>
       </c>
       <c r="F398" t="n">
-        <v>0.011151</v>
+        <v>11.151</v>
       </c>
     </row>
     <row r="399">
@@ -8343,7 +8343,7 @@
         <v>5.46</v>
       </c>
       <c r="F399" t="n">
-        <v>0.0116844</v>
+        <v>11.6844</v>
       </c>
     </row>
     <row r="400">
@@ -8363,7 +8363,7 @@
         <v>5.34</v>
       </c>
       <c r="F400" t="n">
-        <v>0.0115344</v>
+        <v>11.5344</v>
       </c>
     </row>
     <row r="401">
@@ -8383,7 +8383,7 @@
         <v>5.295</v>
       </c>
       <c r="F401" t="n">
-        <v>0.01124658</v>
+        <v>11.24658</v>
       </c>
     </row>
     <row r="402">
@@ -8403,7 +8403,7 @@
         <v>5.475</v>
       </c>
       <c r="F402" t="n">
-        <v>0.0118479</v>
+        <v>11.8479</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8423,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="F403" t="n">
-        <v>0.01227468</v>
+        <v>12.27468</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8443,7 @@
         <v>5.64</v>
       </c>
       <c r="F404" t="n">
-        <v>0.01238544</v>
+        <v>12.38544</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8463,7 @@
         <v>5.805</v>
       </c>
       <c r="F405" t="n">
-        <v>0.01237626</v>
+        <v>12.37626</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8483,7 @@
         <v>5.865</v>
       </c>
       <c r="F406" t="n">
-        <v>0.01273878</v>
+        <v>12.73878</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8503,7 @@
         <v>5.895</v>
       </c>
       <c r="F407" t="n">
-        <v>0.01268604</v>
+        <v>12.68604</v>
       </c>
     </row>
     <row r="408">
@@ -8523,7 +8523,7 @@
         <v>6.075</v>
       </c>
       <c r="F408" t="n">
-        <v>0.0135108</v>
+        <v>13.5108</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8543,7 @@
         <v>5.835</v>
       </c>
       <c r="F409" t="n">
-        <v>0.01241688</v>
+        <v>12.41688</v>
       </c>
     </row>
     <row r="410">
@@ -8563,7 +8563,7 @@
         <v>5.955</v>
       </c>
       <c r="F410" t="n">
-        <v>0.01300572</v>
+        <v>13.00572</v>
       </c>
     </row>
     <row r="411">
@@ -8583,7 +8583,7 @@
         <v>5.85</v>
       </c>
       <c r="F411" t="n">
-        <v>0.0126126</v>
+        <v>12.6126</v>
       </c>
     </row>
     <row r="412">
@@ -8603,7 +8603,7 @@
         <v>5.79</v>
       </c>
       <c r="F412" t="n">
-        <v>0.012738</v>
+        <v>12.738</v>
       </c>
     </row>
     <row r="413">
@@ -8623,7 +8623,7 @@
         <v>5.685</v>
       </c>
       <c r="F413" t="n">
-        <v>0.0120522</v>
+        <v>12.0522</v>
       </c>
     </row>
     <row r="414">
@@ -8643,7 +8643,7 @@
         <v>5.64</v>
       </c>
       <c r="F414" t="n">
-        <v>0.0122952</v>
+        <v>12.2952</v>
       </c>
     </row>
     <row r="415">
@@ -8663,7 +8663,7 @@
         <v>5.595</v>
       </c>
       <c r="F415" t="n">
-        <v>0.01255518</v>
+        <v>12.55518</v>
       </c>
     </row>
     <row r="416">
@@ -8683,7 +8683,7 @@
         <v>5.595</v>
       </c>
       <c r="F416" t="n">
-        <v>0.01212996</v>
+        <v>12.12996</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8703,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="F417" t="n">
-        <v>0.0122298</v>
+        <v>12.2298</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8723,7 @@
         <v>5.64</v>
       </c>
       <c r="F418" t="n">
-        <v>0.01188912</v>
+        <v>11.88912</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8743,7 @@
         <v>5.7</v>
       </c>
       <c r="F419" t="n">
-        <v>0.0124716</v>
+        <v>12.4716</v>
       </c>
     </row>
     <row r="420">
@@ -8763,7 +8763,7 @@
         <v>5.76</v>
       </c>
       <c r="F420" t="n">
-        <v>0.0119808</v>
+        <v>11.9808</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8783,7 @@
         <v>5.73</v>
       </c>
       <c r="F421" t="n">
-        <v>0.01251432</v>
+        <v>12.51432</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8803,7 @@
         <v>5.654999999999999</v>
       </c>
       <c r="F422" t="n">
-        <v>0.01228266</v>
+        <v>12.28266</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8823,7 @@
         <v>5.565</v>
       </c>
       <c r="F423" t="n">
-        <v>0.01186458</v>
+        <v>11.86458</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8843,7 @@
         <v>5.52</v>
       </c>
       <c r="F424" t="n">
-        <v>0.01207776</v>
+        <v>12.07776</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8863,7 @@
         <v>5.55</v>
       </c>
       <c r="F425" t="n">
-        <v>0.0119436</v>
+        <v>11.9436</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>5.64</v>
       </c>
       <c r="F426" t="n">
-        <v>0.01222752</v>
+        <v>12.22752</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="F427" t="n">
-        <v>0.0127512</v>
+        <v>12.7512</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8923,7 @@
         <v>5.91</v>
       </c>
       <c r="F428" t="n">
-        <v>0.01307292</v>
+        <v>13.07292</v>
       </c>
     </row>
     <row r="429">
@@ -8943,7 +8943,7 @@
         <v>6.029999999999999</v>
       </c>
       <c r="F429" t="n">
-        <v>0.01288008</v>
+        <v>12.88008</v>
       </c>
     </row>
     <row r="430">
@@ -8963,7 +8963,7 @@
         <v>6.075</v>
       </c>
       <c r="F430" t="n">
-        <v>0.0132192</v>
+        <v>13.2192</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8983,7 @@
         <v>6.09</v>
       </c>
       <c r="F431" t="n">
-        <v>0.01322748</v>
+        <v>13.22748</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9003,7 @@
         <v>6.09</v>
       </c>
       <c r="F432" t="n">
-        <v>0.01337364</v>
+        <v>13.37364</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9023,7 @@
         <v>6.105</v>
       </c>
       <c r="F433" t="n">
-        <v>0.01328448</v>
+        <v>13.28448</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9043,7 @@
         <v>6.105</v>
       </c>
       <c r="F434" t="n">
-        <v>0.01323564</v>
+        <v>13.23564</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9063,7 @@
         <v>6.09</v>
       </c>
       <c r="F435" t="n">
-        <v>0.0132762</v>
+        <v>13.2762</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>6.015</v>
       </c>
       <c r="F436" t="n">
-        <v>0.01318488</v>
+        <v>13.18488</v>
       </c>
     </row>
     <row r="437">
@@ -9103,7 +9103,7 @@
         <v>5.895</v>
       </c>
       <c r="F437" t="n">
-        <v>0.01322838</v>
+        <v>13.22838</v>
       </c>
     </row>
     <row r="438">
@@ -9123,7 +9123,7 @@
         <v>5.76</v>
       </c>
       <c r="F438" t="n">
-        <v>0.01248768</v>
+        <v>12.48768</v>
       </c>
     </row>
     <row r="439">
@@ -9143,7 +9143,7 @@
         <v>5.595</v>
       </c>
       <c r="F439" t="n">
-        <v>0.01224186</v>
+        <v>12.24186</v>
       </c>
     </row>
     <row r="440">
@@ -9163,7 +9163,7 @@
         <v>5.37</v>
       </c>
       <c r="F440" t="n">
-        <v>0.01179252</v>
+        <v>11.79252</v>
       </c>
     </row>
     <row r="441">
@@ -9183,7 +9183,7 @@
         <v>5.295</v>
       </c>
       <c r="F441" t="n">
-        <v>0.0115431</v>
+        <v>11.5431</v>
       </c>
     </row>
     <row r="442">
@@ -9203,7 +9203,7 @@
         <v>5.22</v>
       </c>
       <c r="F442" t="n">
-        <v>0.01112904</v>
+        <v>11.12904</v>
       </c>
     </row>
     <row r="443">
@@ -9223,7 +9223,7 @@
         <v>5.19</v>
       </c>
       <c r="F443" t="n">
-        <v>0.01083672</v>
+        <v>10.83672</v>
       </c>
     </row>
     <row r="444">
@@ -9243,7 +9243,7 @@
         <v>5.16</v>
       </c>
       <c r="F444" t="n">
-        <v>0.01116624</v>
+        <v>11.16624</v>
       </c>
     </row>
     <row r="445">
@@ -9263,7 +9263,7 @@
         <v>5.115</v>
       </c>
       <c r="F445" t="n">
-        <v>0.01119162</v>
+        <v>11.19162</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9283,7 @@
         <v>5.024999999999999</v>
       </c>
       <c r="F446" t="n">
-        <v>0.0108942</v>
+        <v>10.8942</v>
       </c>
     </row>
     <row r="447">
@@ -9303,7 +9303,7 @@
         <v>4.92</v>
       </c>
       <c r="F447" t="n">
-        <v>0.01080432</v>
+        <v>10.80432</v>
       </c>
     </row>
     <row r="448">
@@ -9323,7 +9323,7 @@
         <v>4.8</v>
       </c>
       <c r="F448" t="n">
-        <v>0.0109056</v>
+        <v>10.9056</v>
       </c>
     </row>
     <row r="449">
@@ -9343,7 +9343,7 @@
         <v>4.725</v>
       </c>
       <c r="F449" t="n">
-        <v>0.0104706</v>
+        <v>10.4706</v>
       </c>
     </row>
     <row r="450">
@@ -9363,7 +9363,7 @@
         <v>4.635</v>
       </c>
       <c r="F450" t="n">
-        <v>0.00990036</v>
+        <v>9.900360000000001</v>
       </c>
     </row>
     <row r="451">
@@ -9383,7 +9383,7 @@
         <v>4.545</v>
       </c>
       <c r="F451" t="n">
-        <v>0.00979902</v>
+        <v>9.799020000000001</v>
       </c>
     </row>
     <row r="452">
@@ -9403,7 +9403,7 @@
         <v>4.484999999999999</v>
       </c>
       <c r="F452" t="n">
-        <v>0.009597899999999999</v>
+        <v>9.597899999999999</v>
       </c>
     </row>
     <row r="453">
@@ -9423,7 +9423,7 @@
         <v>4.425</v>
       </c>
       <c r="F453" t="n">
-        <v>0.009752700000000001</v>
+        <v>9.752700000000001</v>
       </c>
     </row>
     <row r="454">
@@ -9443,7 +9443,7 @@
         <v>4.395</v>
       </c>
       <c r="F454" t="n">
-        <v>0.0094932</v>
+        <v>9.4932</v>
       </c>
     </row>
     <row r="455">
@@ -9463,7 +9463,7 @@
         <v>4.365</v>
       </c>
       <c r="F455" t="n">
-        <v>0.009410940000000001</v>
+        <v>9.410940000000002</v>
       </c>
     </row>
     <row r="456">
@@ -9483,7 +9483,7 @@
         <v>4.32</v>
       </c>
       <c r="F456" t="n">
-        <v>0.009192960000000002</v>
+        <v>9.192960000000001</v>
       </c>
     </row>
     <row r="457">
@@ -9503,7 +9503,7 @@
         <v>4.274999999999999</v>
       </c>
       <c r="F457" t="n">
-        <v>0.0092853</v>
+        <v>9.285299999999999</v>
       </c>
     </row>
     <row r="458">
@@ -9523,7 +9523,7 @@
         <v>4.23</v>
       </c>
       <c r="F458" t="n">
-        <v>0.009086039999999998</v>
+        <v>9.086039999999999</v>
       </c>
     </row>
     <row r="459">
@@ -9543,7 +9543,7 @@
         <v>4.17</v>
       </c>
       <c r="F459" t="n">
-        <v>0.009274080000000002</v>
+        <v>9.274080000000001</v>
       </c>
     </row>
     <row r="460">
@@ -9563,7 +9563,7 @@
         <v>4.125</v>
       </c>
       <c r="F460" t="n">
-        <v>0.008778000000000001</v>
+        <v>8.778</v>
       </c>
     </row>
     <row r="461">
@@ -9583,7 +9583,7 @@
         <v>4.065</v>
       </c>
       <c r="F461" t="n">
-        <v>0.008877960000000001</v>
+        <v>8.87796</v>
       </c>
     </row>
     <row r="462">
@@ -9603,7 +9603,7 @@
         <v>4.035</v>
       </c>
       <c r="F462" t="n">
-        <v>0.00874788</v>
+        <v>8.74788</v>
       </c>
     </row>
     <row r="463">
@@ -9623,7 +9623,7 @@
         <v>3.99</v>
       </c>
       <c r="F463" t="n">
-        <v>0.008602439999999999</v>
+        <v>8.60244</v>
       </c>
     </row>
     <row r="464">
@@ -9643,7 +9643,7 @@
         <v>3.945</v>
       </c>
       <c r="F464" t="n">
-        <v>0.00847386</v>
+        <v>8.47386</v>
       </c>
     </row>
     <row r="465">
@@ -9663,7 +9663,7 @@
         <v>3.9</v>
       </c>
       <c r="F465" t="n">
-        <v>0.008595600000000002</v>
+        <v>8.595600000000001</v>
       </c>
     </row>
     <row r="466">
@@ -9683,7 +9683,7 @@
         <v>3.84</v>
       </c>
       <c r="F466" t="n">
-        <v>0.00832512</v>
+        <v>8.32512</v>
       </c>
     </row>
     <row r="467">
@@ -9703,7 +9703,7 @@
         <v>3.795</v>
       </c>
       <c r="F467" t="n">
-        <v>0.008409720000000001</v>
+        <v>8.40972</v>
       </c>
     </row>
     <row r="468">
@@ -9723,7 +9723,7 @@
         <v>3.765</v>
       </c>
       <c r="F468" t="n">
-        <v>0.008222759999999999</v>
+        <v>8.222759999999999</v>
       </c>
     </row>
     <row r="469">
@@ -9743,7 +9743,7 @@
         <v>3.72</v>
       </c>
       <c r="F469" t="n">
-        <v>0.007990560000000001</v>
+        <v>7.99056</v>
       </c>
     </row>
     <row r="470">
@@ -9763,7 +9763,7 @@
         <v>3.66</v>
       </c>
       <c r="F470" t="n">
-        <v>0.008052</v>
+        <v>8.052</v>
       </c>
     </row>
     <row r="471">
@@ -9783,7 +9783,7 @@
         <v>3.6</v>
       </c>
       <c r="F471" t="n">
-        <v>0.0078048</v>
+        <v>7.8048</v>
       </c>
     </row>
     <row r="472">
@@ -9803,7 +9803,7 @@
         <v>3.54</v>
       </c>
       <c r="F472" t="n">
-        <v>0.00773136</v>
+        <v>7.73136</v>
       </c>
     </row>
     <row r="473">
@@ -9823,7 +9823,7 @@
         <v>3.51</v>
       </c>
       <c r="F473" t="n">
-        <v>0.007595640000000001</v>
+        <v>7.59564</v>
       </c>
     </row>
     <row r="474">
@@ -9843,7 +9843,7 @@
         <v>3.48</v>
       </c>
       <c r="F474" t="n">
-        <v>0.007516800000000001</v>
+        <v>7.516800000000002</v>
       </c>
     </row>
     <row r="475">
@@ -9863,7 +9863,7 @@
         <v>3.435</v>
       </c>
       <c r="F475" t="n">
-        <v>0.007337160000000001</v>
+        <v>7.337160000000002</v>
       </c>
     </row>
     <row r="476">
@@ -9883,7 +9883,7 @@
         <v>3.36</v>
       </c>
       <c r="F476" t="n">
-        <v>0.00724416</v>
+        <v>7.24416</v>
       </c>
     </row>
     <row r="477">
@@ -9903,7 +9903,7 @@
         <v>3.315</v>
       </c>
       <c r="F477" t="n">
-        <v>0.00745212</v>
+        <v>7.45212</v>
       </c>
     </row>
     <row r="478">
@@ -9923,7 +9923,7 @@
         <v>3.285</v>
       </c>
       <c r="F478" t="n">
-        <v>0.00726642</v>
+        <v>7.26642</v>
       </c>
     </row>
     <row r="479">
@@ -9943,7 +9943,7 @@
         <v>3.24</v>
       </c>
       <c r="F479" t="n">
-        <v>0.00698544</v>
+        <v>6.98544</v>
       </c>
     </row>
     <row r="480">
@@ -9963,7 +9963,7 @@
         <v>3.21</v>
       </c>
       <c r="F480" t="n">
-        <v>0.00717756</v>
+        <v>7.177560000000001</v>
       </c>
     </row>
     <row r="481">
@@ -9983,7 +9983,7 @@
         <v>3.195</v>
       </c>
       <c r="F481" t="n">
-        <v>0.00687564</v>
+        <v>6.87564</v>
       </c>
     </row>
     <row r="482">
@@ -10003,7 +10003,7 @@
         <v>3.165</v>
       </c>
       <c r="F482" t="n">
-        <v>0.006811080000000001</v>
+        <v>6.81108</v>
       </c>
     </row>
     <row r="483">
@@ -10023,7 +10023,7 @@
         <v>3.12</v>
       </c>
       <c r="F483" t="n">
-        <v>0.006988800000000002</v>
+        <v>6.988800000000001</v>
       </c>
     </row>
     <row r="484">
@@ -10043,7 +10043,7 @@
         <v>3.105</v>
       </c>
       <c r="F484" t="n">
-        <v>0.006731640000000001</v>
+        <v>6.731640000000001</v>
       </c>
     </row>
     <row r="485">
@@ -10063,7 +10063,7 @@
         <v>3.09</v>
       </c>
       <c r="F485" t="n">
-        <v>0.00672384</v>
+        <v>6.72384</v>
       </c>
     </row>
     <row r="486">
@@ -10083,7 +10083,7 @@
         <v>3.045</v>
       </c>
       <c r="F486" t="n">
-        <v>0.00650412</v>
+        <v>6.50412</v>
       </c>
     </row>
     <row r="487">
@@ -10103,7 +10103,7 @@
         <v>3.015</v>
       </c>
       <c r="F487" t="n">
-        <v>0.00660888</v>
+        <v>6.60888</v>
       </c>
     </row>
     <row r="488">
@@ -10123,7 +10123,7 @@
         <v>2.985</v>
       </c>
       <c r="F488" t="n">
-        <v>0.00643566</v>
+        <v>6.43566</v>
       </c>
     </row>
     <row r="489">
@@ -10143,7 +10143,7 @@
         <v>2.94</v>
       </c>
       <c r="F489" t="n">
-        <v>0.0064092</v>
+        <v>6.4092</v>
       </c>
     </row>
     <row r="490">
@@ -10163,7 +10163,7 @@
         <v>2.895</v>
       </c>
       <c r="F490" t="n">
-        <v>0.00617214</v>
+        <v>6.17214</v>
       </c>
     </row>
     <row r="491">
@@ -10183,7 +10183,7 @@
         <v>2.85</v>
       </c>
       <c r="F491" t="n">
-        <v>0.006156000000000001</v>
+        <v>6.156000000000001</v>
       </c>
     </row>
     <row r="492">
@@ -10203,7 +10203,7 @@
         <v>2.79</v>
       </c>
       <c r="F492" t="n">
-        <v>0.00616032</v>
+        <v>6.16032</v>
       </c>
     </row>
     <row r="493">
@@ -10223,7 +10223,7 @@
         <v>2.745</v>
       </c>
       <c r="F493" t="n">
-        <v>0.006006060000000001</v>
+        <v>6.006060000000002</v>
       </c>
     </row>
     <row r="494">
@@ -10243,7 +10243,7 @@
         <v>2.67</v>
       </c>
       <c r="F494" t="n">
-        <v>0.00586332</v>
+        <v>5.86332</v>
       </c>
     </row>
     <row r="495">
@@ -10263,7 +10263,7 @@
         <v>2.625</v>
       </c>
       <c r="F495" t="n">
-        <v>0.0057015</v>
+        <v>5.7015</v>
       </c>
     </row>
     <row r="496">
@@ -10283,7 +10283,7 @@
         <v>2.58</v>
       </c>
       <c r="F496" t="n">
-        <v>0.00569664</v>
+        <v>5.69664</v>
       </c>
     </row>
     <row r="497">
@@ -10303,7 +10303,7 @@
         <v>2.52</v>
       </c>
       <c r="F497" t="n">
-        <v>0.005634720000000001</v>
+        <v>5.634720000000001</v>
       </c>
     </row>
     <row r="498">
@@ -10323,7 +10323,7 @@
         <v>2.475</v>
       </c>
       <c r="F498" t="n">
-        <v>0.0054153</v>
+        <v>5.415299999999999</v>
       </c>
     </row>
     <row r="499">
@@ -10343,7 +10343,7 @@
         <v>2.445</v>
       </c>
       <c r="F499" t="n">
-        <v>0.00527142</v>
+        <v>5.27142</v>
       </c>
     </row>
     <row r="500">
@@ -10363,7 +10363,7 @@
         <v>2.385</v>
       </c>
       <c r="F500" t="n">
-        <v>0.005247</v>
+        <v>5.247</v>
       </c>
     </row>
     <row r="501">
@@ -10383,7 +10383,7 @@
         <v>2.355</v>
       </c>
       <c r="F501" t="n">
-        <v>0.0050868</v>
+        <v>5.0868</v>
       </c>
     </row>
     <row r="502">
@@ -10403,7 +10403,7 @@
         <v>2.31</v>
       </c>
       <c r="F502" t="n">
-        <v>0.0051282</v>
+        <v>5.128200000000001</v>
       </c>
     </row>
     <row r="503">
@@ -10423,7 +10423,7 @@
         <v>2.265</v>
       </c>
       <c r="F503" t="n">
-        <v>0.004883340000000001</v>
+        <v>4.88334</v>
       </c>
     </row>
     <row r="504">
@@ -10443,7 +10443,7 @@
         <v>2.22</v>
       </c>
       <c r="F504" t="n">
-        <v>0.0049284</v>
+        <v>4.9284</v>
       </c>
     </row>
     <row r="505">
@@ -10463,7 +10463,7 @@
         <v>2.175</v>
       </c>
       <c r="F505" t="n">
-        <v>0.0048111</v>
+        <v>4.8111</v>
       </c>
     </row>
     <row r="506">
@@ -10483,7 +10483,7 @@
         <v>2.115</v>
       </c>
       <c r="F506" t="n">
-        <v>0.00461916</v>
+        <v>4.61916</v>
       </c>
     </row>
     <row r="507">
@@ -10503,7 +10503,7 @@
         <v>2.085</v>
       </c>
       <c r="F507" t="n">
-        <v>0.00455364</v>
+        <v>4.553640000000001</v>
       </c>
     </row>
     <row r="508">
@@ -10523,7 +10523,7 @@
         <v>2.04</v>
       </c>
       <c r="F508" t="n">
-        <v>0.004463520000000001</v>
+        <v>4.463520000000001</v>
       </c>
     </row>
     <row r="509">
@@ -10543,7 +10543,7 @@
         <v>1.995</v>
       </c>
       <c r="F509" t="n">
-        <v>0.00439698</v>
+        <v>4.39698</v>
       </c>
     </row>
     <row r="510">
@@ -10563,7 +10563,7 @@
         <v>1.95</v>
       </c>
       <c r="F510" t="n">
-        <v>0.0042744</v>
+        <v>4.2744</v>
       </c>
     </row>
     <row r="511">
@@ -10583,7 +10583,7 @@
         <v>1.89</v>
       </c>
       <c r="F511" t="n">
-        <v>0.00415044</v>
+        <v>4.15044</v>
       </c>
     </row>
     <row r="512">
@@ -10603,7 +10603,7 @@
         <v>1.845</v>
       </c>
       <c r="F512" t="n">
-        <v>0.0039852</v>
+        <v>3.9852</v>
       </c>
     </row>
     <row r="513">
@@ -10623,7 +10623,7 @@
         <v>1.8</v>
       </c>
       <c r="F513" t="n">
-        <v>0.0039888</v>
+        <v>3.9888</v>
       </c>
     </row>
     <row r="514">
@@ -10643,7 +10643,7 @@
         <v>1.755</v>
       </c>
       <c r="F514" t="n">
-        <v>0.00395928</v>
+        <v>3.95928</v>
       </c>
     </row>
     <row r="515">
@@ -10663,7 +10663,7 @@
         <v>1.71</v>
       </c>
       <c r="F515" t="n">
-        <v>0.00374148</v>
+        <v>3.74148</v>
       </c>
     </row>
     <row r="516">
@@ -10683,7 +10683,7 @@
         <v>1.665</v>
       </c>
       <c r="F516" t="n">
-        <v>0.003663</v>
+        <v>3.663</v>
       </c>
     </row>
     <row r="517">
@@ -10703,7 +10703,7 @@
         <v>1.62</v>
       </c>
       <c r="F517" t="n">
-        <v>0.00354456</v>
+        <v>3.54456</v>
       </c>
     </row>
     <row r="518">
@@ -10723,7 +10723,7 @@
         <v>1.59</v>
       </c>
       <c r="F518" t="n">
-        <v>0.0035616</v>
+        <v>3.5616</v>
       </c>
     </row>
     <row r="519">
@@ -10743,7 +10743,7 @@
         <v>1.545</v>
       </c>
       <c r="F519" t="n">
-        <v>0.00340518</v>
+        <v>3.40518</v>
       </c>
     </row>
     <row r="520">
@@ -10763,7 +10763,7 @@
         <v>1.515</v>
       </c>
       <c r="F520" t="n">
-        <v>0.00341178</v>
+        <v>3.41178</v>
       </c>
     </row>
     <row r="521">
@@ -10783,7 +10783,7 @@
         <v>1.455</v>
       </c>
       <c r="F521" t="n">
-        <v>0.00330576</v>
+        <v>3.30576</v>
       </c>
     </row>
     <row r="522">
@@ -10803,7 +10803,7 @@
         <v>1.44</v>
       </c>
       <c r="F522" t="n">
-        <v>0.00315648</v>
+        <v>3.15648</v>
       </c>
     </row>
     <row r="523">
@@ -10823,7 +10823,7 @@
         <v>1.395</v>
       </c>
       <c r="F523" t="n">
-        <v>0.003163860000000001</v>
+        <v>3.163860000000001</v>
       </c>
     </row>
     <row r="524">
@@ -10843,7 +10843,7 @@
         <v>1.365</v>
       </c>
       <c r="F524" t="n">
-        <v>0.00298116</v>
+        <v>2.98116</v>
       </c>
     </row>
     <row r="525">
@@ -10863,7 +10863,7 @@
         <v>1.335</v>
       </c>
       <c r="F525" t="n">
-        <v>0.00295302</v>
+        <v>2.95302</v>
       </c>
     </row>
     <row r="526">
@@ -10883,7 +10883,7 @@
         <v>1.29</v>
       </c>
       <c r="F526" t="n">
-        <v>0.0029154</v>
+        <v>2.9154</v>
       </c>
     </row>
     <row r="527">
@@ -10903,7 +10903,7 @@
         <v>1.26</v>
       </c>
       <c r="F527" t="n">
-        <v>0.002822400000000001</v>
+        <v>2.822400000000001</v>
       </c>
     </row>
     <row r="528">
@@ -10923,7 +10923,7 @@
         <v>1.245</v>
       </c>
       <c r="F528" t="n">
-        <v>0.0028137</v>
+        <v>2.8137</v>
       </c>
     </row>
     <row r="529">
@@ -10943,7 +10943,7 @@
         <v>1.215</v>
       </c>
       <c r="F529" t="n">
-        <v>0.00266814</v>
+        <v>2.66814</v>
       </c>
     </row>
     <row r="530">
@@ -10963,7 +10963,7 @@
         <v>1.185</v>
       </c>
       <c r="F530" t="n">
-        <v>0.0025833</v>
+        <v>2.5833</v>
       </c>
     </row>
     <row r="531">
@@ -10983,7 +10983,7 @@
         <v>1.14</v>
       </c>
       <c r="F531" t="n">
-        <v>0.00252168</v>
+        <v>2.52168</v>
       </c>
     </row>
     <row r="532">
@@ -11003,7 +11003,7 @@
         <v>1.095</v>
       </c>
       <c r="F532" t="n">
-        <v>0.00248346</v>
+        <v>2.48346</v>
       </c>
     </row>
     <row r="533">
@@ -11023,7 +11023,7 @@
         <v>1.08</v>
       </c>
       <c r="F533" t="n">
-        <v>0.00243216</v>
+        <v>2.43216</v>
       </c>
     </row>
     <row r="534">
@@ -11043,7 +11043,7 @@
         <v>1.05</v>
       </c>
       <c r="F534" t="n">
-        <v>0.0023184</v>
+        <v>2.3184</v>
       </c>
     </row>
     <row r="535">
@@ -11063,7 +11063,7 @@
         <v>1.02</v>
       </c>
       <c r="F535" t="n">
-        <v>0.00228888</v>
+        <v>2.28888</v>
       </c>
     </row>
     <row r="536">
@@ -11083,7 +11083,7 @@
         <v>0.99</v>
       </c>
       <c r="F536" t="n">
-        <v>0.00220968</v>
+        <v>2.20968</v>
       </c>
     </row>
     <row r="537">
@@ -11103,7 +11103,7 @@
         <v>0.96</v>
       </c>
       <c r="F537" t="n">
-        <v>0.0021888</v>
+        <v>2.1888</v>
       </c>
     </row>
     <row r="538">
@@ -11123,7 +11123,7 @@
         <v>0.9149999999999999</v>
       </c>
       <c r="F538" t="n">
-        <v>0.00205326</v>
+        <v>2.05326</v>
       </c>
     </row>
     <row r="539">
@@ -11143,7 +11143,7 @@
         <v>0.885</v>
       </c>
       <c r="F539" t="n">
-        <v>0.00201072</v>
+        <v>2.01072</v>
       </c>
     </row>
     <row r="540">
@@ -11163,7 +11163,7 @@
         <v>0.87</v>
       </c>
       <c r="F540" t="n">
-        <v>0.00193488</v>
+        <v>1.93488</v>
       </c>
     </row>
     <row r="541">
@@ -11183,7 +11183,7 @@
         <v>0.84</v>
       </c>
       <c r="F541" t="n">
-        <v>0.00189168</v>
+        <v>1.89168</v>
       </c>
     </row>
     <row r="542">
@@ -11203,7 +11203,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="F542" t="n">
-        <v>0.00175854</v>
+        <v>1.75854</v>
       </c>
     </row>
     <row r="543">
@@ -11223,7 +11223,7 @@
         <v>0.765</v>
       </c>
       <c r="F543" t="n">
-        <v>0.00169524</v>
+        <v>1.69524</v>
       </c>
     </row>
     <row r="544">
@@ -11243,7 +11243,7 @@
         <v>0.735</v>
       </c>
       <c r="F544" t="n">
-        <v>0.00168462</v>
+        <v>1.68462</v>
       </c>
     </row>
     <row r="545">
@@ -11263,7 +11263,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F545" t="n">
-        <v>0.0015732</v>
+        <v>1.5732</v>
       </c>
     </row>
     <row r="546">
@@ -11283,7 +11283,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F546" t="n">
-        <v>0.0015255</v>
+        <v>1.5255</v>
       </c>
     </row>
     <row r="547">
@@ -11303,7 +11303,7 @@
         <v>0.6599999999999999</v>
       </c>
       <c r="F547" t="n">
-        <v>0.00148896</v>
+        <v>1.48896</v>
       </c>
     </row>
     <row r="548">
@@ -11323,7 +11323,7 @@
         <v>0.615</v>
       </c>
       <c r="F548" t="n">
-        <v>0.00133086</v>
+        <v>1.33086</v>
       </c>
     </row>
     <row r="549">
@@ -11343,7 +11343,7 @@
         <v>0.585</v>
       </c>
       <c r="F549" t="n">
-        <v>0.0013221</v>
+        <v>1.3221</v>
       </c>
     </row>
     <row r="550">
@@ -11363,7 +11363,7 @@
         <v>0.585</v>
       </c>
       <c r="F550" t="n">
-        <v>0.0013221</v>
+        <v>1.3221</v>
       </c>
     </row>
     <row r="551">
@@ -11383,7 +11383,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F551" t="n">
-        <v>0.0012432</v>
+        <v>1.2432</v>
       </c>
     </row>
     <row r="552">
@@ -11403,7 +11403,7 @@
         <v>0.525</v>
       </c>
       <c r="F552" t="n">
-        <v>0.0011592</v>
+        <v>1.1592</v>
       </c>
     </row>
     <row r="553">
@@ -11423,7 +11423,7 @@
         <v>0.495</v>
       </c>
       <c r="F553" t="n">
-        <v>0.00111078</v>
+        <v>1.11078</v>
       </c>
     </row>
     <row r="554">
@@ -11443,7 +11443,7 @@
         <v>0.465</v>
       </c>
       <c r="F554" t="n">
-        <v>0.00102858</v>
+        <v>1.02858</v>
       </c>
     </row>
     <row r="555">
@@ -11463,7 +11463,7 @@
         <v>0.465</v>
       </c>
       <c r="F555" t="n">
-        <v>0.00101928</v>
+        <v>1.01928</v>
       </c>
     </row>
     <row r="556">
@@ -11483,7 +11483,7 @@
         <v>0.435</v>
       </c>
       <c r="F556" t="n">
-        <v>0.0009796200000000001</v>
+        <v>0.97962</v>
       </c>
     </row>
     <row r="557">
@@ -11503,7 +11503,7 @@
         <v>0.42</v>
       </c>
       <c r="F557" t="n">
-        <v>0.00093576</v>
+        <v>0.93576</v>
       </c>
     </row>
     <row r="558">
@@ -11523,7 +11523,7 @@
         <v>0.42</v>
       </c>
       <c r="F558" t="n">
-        <v>0.00094584</v>
+        <v>0.94584</v>
       </c>
     </row>
     <row r="559">
@@ -11543,7 +11543,7 @@
         <v>0.375</v>
       </c>
       <c r="F559" t="n">
-        <v>0.0008580000000000001</v>
+        <v>0.8580000000000001</v>
       </c>
     </row>
     <row r="560">
@@ -11563,7 +11563,7 @@
         <v>0.375</v>
       </c>
       <c r="F560" t="n">
-        <v>0.000849</v>
+        <v>0.8490000000000001</v>
       </c>
     </row>
     <row r="561">
@@ -11583,7 +11583,7 @@
         <v>0.345</v>
       </c>
       <c r="F561" t="n">
-        <v>0.00079074</v>
+        <v>0.79074</v>
       </c>
     </row>
     <row r="562">
@@ -11603,7 +11603,7 @@
         <v>0.33</v>
       </c>
       <c r="F562" t="n">
-        <v>0.00075108</v>
+        <v>0.75108</v>
       </c>
     </row>
     <row r="563">
@@ -11623,7 +11623,7 @@
         <v>0.315</v>
       </c>
       <c r="F563" t="n">
-        <v>0.0007245000000000001</v>
+        <v>0.7245000000000001</v>
       </c>
     </row>
     <row r="564">
@@ -11643,7 +11643,7 @@
         <v>0.3</v>
       </c>
       <c r="F564" t="n">
-        <v>0.0006708</v>
+        <v>0.6708000000000001</v>
       </c>
     </row>
     <row r="565">
@@ -11663,7 +11663,7 @@
         <v>0.285</v>
       </c>
       <c r="F565" t="n">
-        <v>0.00064068</v>
+        <v>0.64068</v>
       </c>
     </row>
     <row r="566">
@@ -11683,7 +11683,7 @@
         <v>0.255</v>
       </c>
       <c r="F566" t="n">
-        <v>0.0005752800000000001</v>
+        <v>0.57528</v>
       </c>
     </row>
     <row r="567">
@@ -11703,7 +11703,7 @@
         <v>0.255</v>
       </c>
       <c r="F567" t="n">
-        <v>0.00057222</v>
+        <v>0.5722200000000001</v>
       </c>
     </row>
     <row r="568">
@@ -11723,7 +11723,7 @@
         <v>0.225</v>
       </c>
       <c r="F568" t="n">
-        <v>0.0005112</v>
+        <v>0.5112</v>
       </c>
     </row>
     <row r="569">
@@ -11743,7 +11743,7 @@
         <v>0.21</v>
       </c>
       <c r="F569" t="n">
-        <v>0.00047712</v>
+        <v>0.47712</v>
       </c>
     </row>
     <row r="570">
@@ -11763,7 +11763,7 @@
         <v>0.195</v>
       </c>
       <c r="F570" t="n">
-        <v>0.0004469400000000001</v>
+        <v>0.4469400000000001</v>
       </c>
     </row>
     <row r="571">
@@ -11783,7 +11783,7 @@
         <v>0.18</v>
       </c>
       <c r="F571" t="n">
-        <v>0.00041472</v>
+        <v>0.41472</v>
       </c>
     </row>
     <row r="572">
@@ -11803,7 +11803,7 @@
         <v>0.18</v>
       </c>
       <c r="F572" t="n">
-        <v>0.0004068000000000001</v>
+        <v>0.4068000000000001</v>
       </c>
     </row>
     <row r="573">
@@ -11823,7 +11823,7 @@
         <v>0.15</v>
       </c>
       <c r="F573" t="n">
-        <v>0.0003444</v>
+        <v>0.3444</v>
       </c>
     </row>
     <row r="574">
@@ -11843,7 +11843,7 @@
         <v>0.15</v>
       </c>
       <c r="F574" t="n">
-        <v>0.0003456</v>
+        <v>0.3456</v>
       </c>
     </row>
     <row r="575">
@@ -11863,7 +11863,7 @@
         <v>0.135</v>
       </c>
       <c r="F575" t="n">
-        <v>0.0003061800000000001</v>
+        <v>0.3061800000000001</v>
       </c>
     </row>
     <row r="576">
@@ -11883,7 +11883,7 @@
         <v>0.12</v>
       </c>
       <c r="F576" t="n">
-        <v>0.0002855999999999999</v>
+        <v>0.2855999999999999</v>
       </c>
     </row>
     <row r="577">
@@ -11903,7 +11903,7 @@
         <v>0.105</v>
       </c>
       <c r="F577" t="n">
-        <v>0.0002515799999999999</v>
+        <v>0.2515799999999999</v>
       </c>
     </row>
     <row r="578">
@@ -11923,7 +11923,7 @@
         <v>0.09</v>
       </c>
       <c r="F578" t="n">
-        <v>0.00021924</v>
+        <v>0.21924</v>
       </c>
     </row>
     <row r="579">
@@ -11943,7 +11943,7 @@
         <v>0.045</v>
       </c>
       <c r="F579" t="n">
-        <v>0.00011376</v>
+        <v>0.11376</v>
       </c>
     </row>
     <row r="580">
@@ -11963,7 +11963,7 @@
         <v>0.03</v>
       </c>
       <c r="F580" t="n">
-        <v>7.788000000000001e-05</v>
+        <v>0.07788</v>
       </c>
     </row>
     <row r="581">
@@ -11983,7 +11983,7 @@
         <v>0.03</v>
       </c>
       <c r="F581" t="n">
-        <v>7.620000000000001e-05</v>
+        <v>0.0762</v>
       </c>
     </row>
     <row r="582">
@@ -12003,7 +12003,7 @@
         <v>0.015</v>
       </c>
       <c r="F582" t="n">
-        <v>3.726e-05</v>
+        <v>0.03726</v>
       </c>
     </row>
     <row r="583">
@@ -12023,7 +12023,7 @@
         <v>0.015</v>
       </c>
       <c r="F583" t="n">
-        <v>3.666e-05</v>
+        <v>0.03666</v>
       </c>
     </row>
     <row r="584">
@@ -12043,7 +12043,7 @@
         <v>0.015</v>
       </c>
       <c r="F584" t="n">
-        <v>3.599999999999999e-05</v>
+        <v>0.03599999999999999</v>
       </c>
     </row>
     <row r="585">
@@ -12063,7 +12063,7 @@
         <v>0.03</v>
       </c>
       <c r="F585" t="n">
-        <v>6.996e-05</v>
+        <v>0.06995999999999999</v>
       </c>
     </row>
     <row r="586">
@@ -12083,7 +12083,7 @@
         <v>0.015</v>
       </c>
       <c r="F586" t="n">
-        <v>3.378000000000001e-05</v>
+        <v>0.03378000000000001</v>
       </c>
     </row>
     <row r="587">
@@ -12123,7 +12123,7 @@
         <v>0.015</v>
       </c>
       <c r="F588" t="n">
-        <v>3.114e-05</v>
+        <v>0.03114</v>
       </c>
     </row>
     <row r="589">
@@ -12143,7 +12143,7 @@
         <v>0.015</v>
       </c>
       <c r="F589" t="n">
-        <v>2.982e-05</v>
+        <v>0.02982</v>
       </c>
     </row>
     <row r="590">
@@ -12163,7 +12163,7 @@
         <v>0.015</v>
       </c>
       <c r="F590" t="n">
-        <v>2.85e-05</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="591">
